--- a/insightsdatabase.xlsx
+++ b/insightsdatabase.xlsx
@@ -11,453 +11,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
-  <si>
-    <t xml:space="preserve"> Insights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PrimeiraPalavra-Chave </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SegundaPalavra-Chave </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aleatório</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DeepLearning é uma ferramenta dentro do escopo do machine learning.                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DeepLearning          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ferramenta           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fvlskvnlaksjnvlsk aeslkjcnpasoncpasoji cpadsjncpoais                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As vezes recomeçar do zero é mais fácil do que tentar organizar um código mal escrito.                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organizar             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Código               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aslcjnapscijnpas capsocnpaOJCNPAOSNCPAONC                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um jogo todo baseado em áudio para pessoas com cegueira.                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jogo                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cegueira             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VDLKjsdbvpSDJNVCPOadnsvpojnsdpOVNPDSOAIVNPASINVPAOSDNVPAISNVPIANPNPIJNOIUpiub                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Universidade de tecnologia e arte                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tecnologia            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arte                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dsgasfjkvnsz;vjn D:Jv OSDVn: doic:ODIVnczsjd;ovndvdg                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Game de mundo zoo noir com gatos mafiosos                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> game                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gatos                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ;poasncpoewncpi pasuecnpiuehfpiuasecpiuscpiusehcpiuhecpiupi                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Melhor forma de aprender é ensinando                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aprender              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ensinando            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xmon;ojnpaucbpaojcn;aonc;ao ;aoxapo;cnioun vlrskvnsro;vin a;woid clejc ni k;l jksndsk                                       </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="859">
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>PrimeiraPalavra-Chave</t>
+  </si>
+  <si>
+    <t>SegundaPalavra-Chave</t>
+  </si>
+  <si>
+    <t>Aleatório</t>
+  </si>
+  <si>
+    <t>DeepLearning é uma ferramenta dentro do escopo do machine learning.</t>
+  </si>
+  <si>
+    <t>DeepLearning</t>
+  </si>
+  <si>
+    <t>Ferramenta</t>
+  </si>
+  <si>
+    <t>fvlskvnlaksjnvlsk aeslkjcnpasoncpasoji cpadsjncpoais</t>
+  </si>
+  <si>
+    <t>As vezes recomeçar do zero é mais fácil do que tentar organizar um código mal escrito.</t>
+  </si>
+  <si>
+    <t>Organizar</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>aslcjnapscijnpas capsocnpaOJCNPAOSNCPAONC</t>
+  </si>
+  <si>
+    <t>Um jogo todo baseado em áudio para pessoas com cegueira.</t>
+  </si>
+  <si>
+    <t>Jogo</t>
+  </si>
+  <si>
+    <t>Cegueira</t>
+  </si>
+  <si>
+    <t>VDLKjsdbvpSDJNVCPOadnsvpojnsdpOVNPDSOAIVNPASINVPAOSDNVPAISNVPIANPNPIJNOIUpiub</t>
+  </si>
+  <si>
+    <t>Universidade de tecnologia e arte</t>
+  </si>
+  <si>
+    <t>tecnologia</t>
+  </si>
+  <si>
+    <t>arte</t>
+  </si>
+  <si>
+    <t>dsgasfjkvnsz;vjn D:Jv OSDVn: doic:ODIVnczsjd;ovndvdg</t>
+  </si>
+  <si>
+    <t>Game de mundo zoo noir com gatos mafiosos</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>gatos</t>
+  </si>
+  <si>
+    <t>;poasncpoewncpi pasuecnpiuehfpiuasecpiuscpiusehcpiuhecpiupi</t>
+  </si>
+  <si>
+    <t>Melhor forma de aprender é ensinando</t>
+  </si>
+  <si>
+    <t>aprender</t>
+  </si>
+  <si>
+    <t>ensinando</t>
+  </si>
+  <si>
+    <t>xmon;ojnpaucbpaojcn;aonc;ao ;aoxapo;cnioun vlrskvnsro;vin a;woid clejc ni k;l jksndsk</t>
   </si>
   <si>
     <t>10% de todos os humanos já nascidos, estão vivos neste momento.</t>
   </si>
   <si>
-    <t xml:space="preserve"> humanos               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vivos                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> skjechbsekchjbes kesjhcbelwpi woicepwiucbpewiubc pwieucoiewubcpi                                                            </t>
+    <t>humanos</t>
+  </si>
+  <si>
+    <t>vivos</t>
+  </si>
+  <si>
+    <t>skjechbsekchjbes kesjhcbelwpi woicepwiucbpewiubc pwieucoiewubcpi</t>
   </si>
   <si>
     <t>São necessários 8 minutos e 17 segundos para a luz viajar da superfície do sol à terra.</t>
   </si>
   <si>
-    <t xml:space="preserve"> superfície            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sol                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iuopiugpoiygpiugpi piugiyrfutrc tycutrdfutyrfuytfuytfiytviytviy                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A aranha viúva negra, come o macho depois do acasalamento.                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aranha                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acasalamento         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jhgvutfuy uytcjyvjg uyftjcfkgjh kjhgvjhgckhgvkjgciytsshs suvkuhsv                                                           </t>
+    <t>superfície</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>iuopiugpoiygpiugpi piugiyrfutrc tycutrdfutyrfuytfuytfiytviytviy</t>
+  </si>
+  <si>
+    <t>A aranha viúva negra, come o macho depois do acasalamento.</t>
+  </si>
+  <si>
+    <t>aranha</t>
+  </si>
+  <si>
+    <t>acasalamento</t>
+  </si>
+  <si>
+    <t>jhgvutfuy uytcjyvjg uyftjcfkgjh kjhgvjhgckhgvkjgciytsshs suvkuhsv</t>
   </si>
   <si>
     <t>O Universo contém mais de 10 bilhões de galáxias.</t>
   </si>
   <si>
-    <t xml:space="preserve"> universo              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> galáxias             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> csjhciauegc iueyvcietwc. wtvsuywbswahdbaiudvaiuv                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quando se colocam larvas sobre feridas, elas curam mais rápido e sem risco de infecções ou gragrenas.              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> larvas                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> infecções            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asjhasviuvedie usavxajkehcbkab aklcjbkcibaelkcihbakehcbaelkhcjvbaklejhcvbalkehcvlaejhcbvljahvcljhaevcl                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O local mais profundo de todos os oceanos são as Fossas Marianas                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> profundo              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oceanos              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Todo ano, um milhão de terremotos sacodem a Terra.                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terremotos            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terra                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lijndcoisdbpcids oieacboieasbcpieubcoiesbcoisebcieobcvoedbcoise                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gatos conseguem enxergar bem no escuro                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gato                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> escuro               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asdjksandjksadjsahdjsahdjkashdkjshjkdshajkdhjsakdhkd                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lentes de contato que não embaça na praia                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lentes                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> embaça               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um teclado led que mude as letras de acordo com a região                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teclado               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> região               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mamfsfljasndfljsdnfnlj..asdaad;nmlknakgnkldangaklgnlngdlkanglangan;lglagalngaglnglslss                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uma cama que se arrume sozinha depois que a gente acorda                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organização           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cama                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> foi o medina                                                                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uma luva que pinta as unhas                                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> beleza                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tecido               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cpaoIJNCOIESUBCPOJCP CODJBCOIUEBSOIEVB                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uma bombom que deixa o sabor de remédio doce                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saúde                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> remédios             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dnfjewneeekjjncjdnlckj                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uma camisa massageadora                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bem-estar             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> relaxamento          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fjnejnfjkenfejn djkcnldksjbcl                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> um guarda roupa inteligente que passa as roupas a vapor                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> otimizar              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vapor                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ,zbv,jbvfyuxbyfkgzbzklgb hbdfhb                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> um guarda roupa inteligente que escolhe o look do dia de acordo com o clima                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> combinações           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> clima                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> zjhvzhvuygduysfguysfaiycbdkzbv,bfdfuygvudyfgdfugldfugihxiuvb                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um cabide que passe as roupas para você                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cabide                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> roupas               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ponsapiucniucnoi vpadsoijbvcpoaisjncnpaoscnapieuecs                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Escrever testes antes das features ajuda o programador a cometeremos erros                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Testes                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Features             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jskskskdkdjdkdldjfiflspsmdncnchdbbdhdkckvpvpvpgofjrifjtkofifuudgevenfkckfndjxocppskenfkcpdpejfic                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um jeito de um pessoa surda conseguir "sentir" a música através de estímulos visuais                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> surda                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> estímulo             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ljhkbjkhvkjhvblkjnbljhvlkjnlhvlk clksbdclhsbadoicspac lajecblaidcn                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um lápis que escreve sozinho o que você quer que ele escreva                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lápis                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sozinho              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> skajdhjkshdjksabdjsabdjsbdjksbdkjsbdjkasbdjksadbkjsadbjksabdka                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um chão que se limpe sozinho                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chão                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jndjsadjkasdjksabdjkasbdjbdkjasbdjkabd                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uma impressora que imprima suas ideias                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> impressora            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ideias               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sjkdhdhgkjasbdasbdhjsdhjsvdhvgasdsfdygdugdihdidiohdioehio                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uma bolsa pequena que carrega várias coisas grandes                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bolsa pequena         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> coisas grandes       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dklsamdklsandladklsadnsadnaklsdnlancmklcmdnjewfijedd                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um livro que traduz automaticamente para todas as línguas do mundo                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> livro                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traduz               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ajdhsadhasdbasbdhsadbhasvdhsavdhjsvhsjdbudbuwdbudbqidasdsnknjkasbdjhbdsahj hsa dhsvdjhbdjasdjhdjahsbdj                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um delineador que sempre deixa um lado igual ao outro                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> delineador            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> igual                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ajknsjkasjkdbasjkdbhjvdeyyeudhakjnjkcbdhasnsajdbasdasjdsaknsjdhajdsad                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uma máscara de cílios que nunca borra                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> máscara de cílios     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> borra                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jshajkdkajsdbhjsvdyudgyuwdbdvasdvshajdvjhsdvjhasdvhjasdvvhj                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As folhas do cacto são os seus espinhos                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cacto                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> espinhos             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ashdhjsabdhjasbdhjabdhjsadvhjsavdhjsavdjhsavdjhasdvs                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Não desistir como o Naruto                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desistir              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Naruto               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> qnwlijfnqwoginevoxfepfjegmcegj                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> átomos nunca se tocam, logo vc nunca toca em ninguém                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> atomos                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tocar                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hjadhkadhjVmavdabnsvhJAJAHDDHjkqwoeiwhq                                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um método automático pra ficar milionário                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> milionário            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> automático           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vavahuajbwbbava                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O sorriso forçado pode me fazer rir de verdade                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sorriso               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fazer                </t>
+    <t>universo</t>
+  </si>
+  <si>
+    <t>galáxias</t>
+  </si>
+  <si>
+    <t>csjhciauegc iueyvcietwc. wtvsuywbswahdbaiudvaiuv</t>
+  </si>
+  <si>
+    <t>Quando se colocam larvas sobre feridas, elas curam mais rápido e sem risco de infecções ou gragrenas.</t>
+  </si>
+  <si>
+    <t>larvas</t>
+  </si>
+  <si>
+    <t>infecções</t>
+  </si>
+  <si>
+    <t>asjhasviuvedie usavxajkehcbkab aklcjbkcibaelkcihbakehcbaelkhcjvbaklejhcvbalkehcvlaejhcbvljahvcljhaevcl</t>
+  </si>
+  <si>
+    <t>O local mais profundo de todos os oceanos são as Fossas Marianas</t>
+  </si>
+  <si>
+    <t>profundo</t>
+  </si>
+  <si>
+    <t>oceanos</t>
+  </si>
+  <si>
+    <t>Todo ano, um milhão de terremotos sacodem a Terra.</t>
+  </si>
+  <si>
+    <t>terremotos</t>
+  </si>
+  <si>
+    <t>terra</t>
+  </si>
+  <si>
+    <t>lijndcoisdbpcids oieacboieasbcpieubcoiesbcoisebcieobcvoedbcoise</t>
+  </si>
+  <si>
+    <t>Gatos conseguem enxergar bem no escuro</t>
+  </si>
+  <si>
+    <t>gato</t>
+  </si>
+  <si>
+    <t>escuro</t>
+  </si>
+  <si>
+    <t>asdjksandjksadjsahdjsahdjkashdkjshjkdshajkdhjsakdhkd</t>
+  </si>
+  <si>
+    <t>Lentes de contato que não embaça na praia</t>
+  </si>
+  <si>
+    <t>lentes</t>
+  </si>
+  <si>
+    <t>embaça</t>
+  </si>
+  <si>
+    <t>Um teclado led que mude as letras de acordo com a região</t>
+  </si>
+  <si>
+    <t>teclado</t>
+  </si>
+  <si>
+    <t>região</t>
+  </si>
+  <si>
+    <t>mamfsfljasndfljsdnfnlj..asdaad;nmlknakgnkldangaklgnlngdlkanglangan;lglagalngaglnglslss</t>
+  </si>
+  <si>
+    <t>uma cama que se arrume sozinha depois que a gente acorda</t>
+  </si>
+  <si>
+    <t>organização</t>
+  </si>
+  <si>
+    <t>cama</t>
+  </si>
+  <si>
+    <t>foi o medina</t>
+  </si>
+  <si>
+    <t>uma luva que pinta as unhas</t>
+  </si>
+  <si>
+    <t>beleza</t>
+  </si>
+  <si>
+    <t>tecido</t>
+  </si>
+  <si>
+    <t>cpaoIJNCOIESUBCPOJCP CODJBCOIUEBSOIEVB</t>
+  </si>
+  <si>
+    <t>uma bombom que deixa o sabor de remédio doce</t>
+  </si>
+  <si>
+    <t>saúde</t>
+  </si>
+  <si>
+    <t>remédios</t>
+  </si>
+  <si>
+    <t>dnfjewneeekjjncjdnlckj</t>
+  </si>
+  <si>
+    <t>uma camisa massageadora</t>
+  </si>
+  <si>
+    <t>bem-estar</t>
+  </si>
+  <si>
+    <t>relaxamento</t>
+  </si>
+  <si>
+    <t>fjnejnfjkenfejn djkcnldksjbcl</t>
+  </si>
+  <si>
+    <t>um guarda roupa inteligente que passa as roupas a vapor</t>
+  </si>
+  <si>
+    <t>otimizar</t>
+  </si>
+  <si>
+    <t>vapor</t>
+  </si>
+  <si>
+    <t>,zbv,jbvfyuxbyfkgzbzklgb hbdfhb</t>
+  </si>
+  <si>
+    <t>um guarda roupa inteligente que escolhe o look do dia de acordo com o clima</t>
+  </si>
+  <si>
+    <t>combinações</t>
+  </si>
+  <si>
+    <t>clima</t>
+  </si>
+  <si>
+    <t>zjhvzhvuygduysfguysfaiycbdkzbv,bfdfuygvudyfgdfugldfugihxiuvb</t>
+  </si>
+  <si>
+    <t>Um cabide que passe as roupas para você</t>
+  </si>
+  <si>
+    <t>Cabide</t>
+  </si>
+  <si>
+    <t>roupas</t>
+  </si>
+  <si>
+    <t>ponsapiucniucnoi vpadsoijbvcpoaisjncnpaoscnapieuecs</t>
+  </si>
+  <si>
+    <t>Escrever testes antes das features ajuda o programador a cometeremos erros</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>jskskskdkdjdkdldjfiflspsmdncnchdbbdhdkckvpvpvpgofjrifjtkofifuudgevenfkckfndjxocppskenfkcpdpejfic</t>
+  </si>
+  <si>
+    <t>Um jeito de um pessoa surda conseguir "sentir" a música através de estímulos visuais</t>
+  </si>
+  <si>
+    <t>surda</t>
+  </si>
+  <si>
+    <t>estímulo</t>
+  </si>
+  <si>
+    <t>ljhkbjkhvkjhvblkjnbljhvlkjnlhvlk clksbdclhsbadoicspac lajecblaidcn</t>
+  </si>
+  <si>
+    <t>Um lápis que escreve sozinho o que você quer que ele escreva</t>
+  </si>
+  <si>
+    <t>escreve</t>
+  </si>
+  <si>
+    <t>sozinho</t>
+  </si>
+  <si>
+    <t>skajdhjkshdjksabdjsabdjsbdjksbdkjsbdjkasbdjksadbkjsadbjksabdka</t>
+  </si>
+  <si>
+    <t>Um chão que se limpe sozinho</t>
+  </si>
+  <si>
+    <t>limpe</t>
+  </si>
+  <si>
+    <t>jndjsadjkasdjksabdjkasbdjbdkjasbdjkabd</t>
+  </si>
+  <si>
+    <t>Uma impressora que imprima suas ideias</t>
+  </si>
+  <si>
+    <t>impressora</t>
+  </si>
+  <si>
+    <t>ideias</t>
+  </si>
+  <si>
+    <t>sjkdhdhgkjasbdasbdhjsdhjsvdhvgasdsfdygdugdihdidiohdioehio</t>
+  </si>
+  <si>
+    <t>Uma bolsa pequena que carrega várias coisas grandes</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>pequena</t>
+  </si>
+  <si>
+    <t>dklsamdklsandladklsadnsadnaklsdnlancmklcmdnjewfijedd</t>
+  </si>
+  <si>
+    <t>Um livro que traduz automaticamente para todas as línguas do mundo</t>
+  </si>
+  <si>
+    <t>livro</t>
+  </si>
+  <si>
+    <t>traduz</t>
+  </si>
+  <si>
+    <t>ajdhsadhasdbasbdhsadbhasvdhsavdhjsvhsjdbudbuwdbudbqidasdsnknjkasbdjhbdsahj hsa dhsvdjhbdjasdjhdjahsbdj</t>
+  </si>
+  <si>
+    <t>Um delineador que sempre deixa um lado igual ao outro</t>
+  </si>
+  <si>
+    <t>delineador</t>
+  </si>
+  <si>
+    <t>lado</t>
+  </si>
+  <si>
+    <t>ajknsjkasjkdbasjkdbhjvdeyyeudhakjnjkcbdhasnsajdbasdasjdsaknsjdhajdsad</t>
+  </si>
+  <si>
+    <t>Uma máscara de cílios que nunca borra</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>cílios</t>
+  </si>
+  <si>
+    <t>jshajkdkajsdbhjsvdyudgyuwdbdvasdvshajdvjhsdvjhasdvhjasdvvhj</t>
+  </si>
+  <si>
+    <t>As folhas do cacto são os seus espinhos</t>
+  </si>
+  <si>
+    <t>cacto</t>
+  </si>
+  <si>
+    <t>espinhos</t>
+  </si>
+  <si>
+    <t>ashdhjsabdhjasbdhjabdhjsadvhjsavdhjsavdjhsavdjhasdvs</t>
+  </si>
+  <si>
+    <t>Não desistir como o Naruto</t>
+  </si>
+  <si>
+    <t>desistir</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>qnwlijfnqwoginevoxfepfjegmcegj</t>
+  </si>
+  <si>
+    <t>átomos nunca se tocam, logo vc nunca toca em ninguém</t>
+  </si>
+  <si>
+    <t>átomos</t>
+  </si>
+  <si>
+    <t>tocar</t>
+  </si>
+  <si>
+    <t>hjadhkadhjVmavdabnsvhJAJAHDDHjkqwoeiwhq</t>
+  </si>
+  <si>
+    <t>Um método automático pra ficar milionário</t>
+  </si>
+  <si>
+    <t>milionário</t>
+  </si>
+  <si>
+    <t>automático</t>
+  </si>
+  <si>
+    <t>vavahuajbwbbava</t>
+  </si>
+  <si>
+    <t>O sorriso forçado pode me fazer rir de verdade</t>
+  </si>
+  <si>
+    <t>sorriso</t>
+  </si>
+  <si>
+    <t>forçado</t>
   </si>
   <si>
     <t>gatinho9000darua18</t>
@@ -466,511 +463,2131 @@
     <t>se a terra for observando de um planeta a 30 milhoes de anos-luz nesse exato momento, eles estao vendo dinossauros</t>
   </si>
   <si>
-    <t xml:space="preserve"> dinossauros           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anos-luz             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asdfghtrdcvbnjuytrewsadadqqwencjkjdkdnjkanjs                                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lavar a mão é uma forma de prevenção contra o covid                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mão                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> covid                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seilaadoletalepetipetipolaumsorvetecolore                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> existe dois porcento de chances de vc ter um falso irmao gêmeo                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> irmão                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gêmeo                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hhjgnbvvihbuoabjxbjsabasbhjbxhjbshxbahjbxshajvha                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se eu dividir minhas tarefas posso conquistar o que eu quero                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conquistar            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dividir              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fguengjiengjtnbj;etwnbenbw;bnrgbnrbrgbnbnebnenAtackOnTitannãopresta                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanos deixar metades das mulheres inferteis teria sido mais eficaz q destruir metade do universo                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanos                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> destruir             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> homemdeferrmaiorqcapitaoamerica                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se o Hulk tivesse treinado todos aqueles anos, ele meteria a porrada no thanos                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hulk                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanos               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> zegotihaheroinacional                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se vc respirar com a boca com a lingua pra fora vai parecer um cachorro                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respirar              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cachorro             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gYXGhjxbhavxgvaiyxvaiXOQUHXUgVJHVGHCH                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dinossauros sao mais proximos de galinhas q jacarés                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dinossauros           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> galinhas             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fdghjksxjhqsjkxbqkjbxiqbibaHJXVAHGVXa                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O ovo veio antes que a galinha pôs esta veio de uma evolução do dinossauro                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ovo                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> galinha              </t>
+    <t>dinossauros</t>
+  </si>
+  <si>
+    <t>anos-luz</t>
+  </si>
+  <si>
+    <t>asdfghtrdcvbnjuytrewsadadqqwencjkjdkdnjkanjs</t>
+  </si>
+  <si>
+    <t>Lavar a mão é uma forma de prevenção contra o covid</t>
+  </si>
+  <si>
+    <t>mão</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>seilaadoletalepetipetipolaumsorvetecolore</t>
+  </si>
+  <si>
+    <t>existe dois porcento de chances de vc ter um falso irmão gêmeo</t>
+  </si>
+  <si>
+    <t>irmão</t>
+  </si>
+  <si>
+    <t>gêmeo</t>
+  </si>
+  <si>
+    <t>hhjgnbvvihbuoabjxbjsabasbhjbxhjbshxbahjbxshajvha</t>
+  </si>
+  <si>
+    <t>Se eu dividir minhas tarefas posso conquistar o que eu quero</t>
+  </si>
+  <si>
+    <t>conquistar</t>
+  </si>
+  <si>
+    <t>dividir</t>
+  </si>
+  <si>
+    <t>fguengjiengjtnbj;etwnbenbw;bnrgbnrbrgbnbnebnenAtackOnTitannãopresta</t>
+  </si>
+  <si>
+    <t>Thanos deixar metades das mulheres inferteis teria sido mais eficaz q destruir metade do universo</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>destruir</t>
+  </si>
+  <si>
+    <t>homemdeferrmaiorqcapitaoamerica</t>
+  </si>
+  <si>
+    <t>Se o Hulk tivesse treinado todos aqueles anos, ele meteria a porrada no thanos</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>zegotihaheroinacional</t>
+  </si>
+  <si>
+    <t>Se vc respirar com a boca com a lingua pra fora vai parecer um cachorro</t>
+  </si>
+  <si>
+    <t>Respirar</t>
+  </si>
+  <si>
+    <t>cachorro</t>
+  </si>
+  <si>
+    <t>gYXGhjxbhavxgvaiyxvaiXOQUHXUgVJHVGHCH</t>
+  </si>
+  <si>
+    <t>Dinossauros sao mais proximos de galinhas q jacarés</t>
+  </si>
+  <si>
+    <t>Dinossauros</t>
+  </si>
+  <si>
+    <t>galinhas</t>
+  </si>
+  <si>
+    <t>fdghjksxjhqsjkxbqkjbxiqbibaHJXVAHGVXa</t>
+  </si>
+  <si>
+    <t>O ovo veio antes que a galinha pôs esta veio de uma evolução do dinossauro</t>
+  </si>
+  <si>
+    <t>ovo</t>
+  </si>
+  <si>
+    <t>galinha</t>
   </si>
   <si>
     <t>queriaumipadprogentedoacossaoaceitasnomeucep12312314</t>
   </si>
   <si>
-    <t xml:space="preserve"> De grão em grão a galinha ou enche o papo ou acumula muitos bens.                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grão                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acumulo              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acumulodeBemTambemSeriaumaboaPalavraChavemasSaoTresPalavrasAiEuPenseiHmmmmTalvezNaum                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A pedra do quintal é parente do grão de areia pois ambos são fragmentos de rocha.                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rocha                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fragmento            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aiAiissoTemTendenciasDoTimeVermelinhoLaMasNaMoralSOmosTodosDerivadosDeUmAtomoRespeiteOsVizinhos                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tempo é uma ilusão, e mais vale dar um tempo para ter ideias do que gastar tempo forçando.                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> relaxa                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tempo                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> naMoralissoNaoFazSentidoMAsEuTenteiComoUmBomProcrastinaDOR                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O ser humano só tem dois locais para sua existência: coexistir no mundo ou coexistir consigo mesmo                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> existência            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> coletividade         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pUxAAminhaVidaEhMuitoSolitariaPenaqueodeiosereshumanosPoremAchoqueOdeiomaisAmim                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dinossauros provavelmente não emitiam um rugido, mas um grasno.                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> som                  </t>
+    <t>De grão em grão a galinha ou enche o papo ou acumula muitos bens.</t>
+  </si>
+  <si>
+    <t>grão</t>
+  </si>
+  <si>
+    <t>acumulo</t>
+  </si>
+  <si>
+    <t>acumulodeBemTambemSeriaumaboaPalavraChavemasSaoTresPalavrasAiEuPenseiHmmmmTalvezNaum</t>
+  </si>
+  <si>
+    <t>A pedra do quintal é parente do grão de areia pois ambos são fragmentos de rocha.</t>
+  </si>
+  <si>
+    <t>pedra</t>
+  </si>
+  <si>
+    <t>areia</t>
+  </si>
+  <si>
+    <t>aiAiissoTemTendenciasDoTimeVermelinhoLaMasNaMoralSOmosTodosDerivadosDeUmAtomoRespeiteOsVizinhos</t>
+  </si>
+  <si>
+    <t>Tempo é uma ilusão, e mais vale dar um tempo para ter ideias do que gastar tempo forçando.</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>ilusão</t>
+  </si>
+  <si>
+    <t>naMoralissoNaoFazSentidoMAsEuTenteiComoUmBomProcrastinaDOR</t>
+  </si>
+  <si>
+    <t>O ser humano só tem dois locais para sua existência: coexistir no mundo ou coexistir consigo mesmo</t>
+  </si>
+  <si>
+    <t>existência</t>
+  </si>
+  <si>
+    <t>coexistir</t>
+  </si>
+  <si>
+    <t>pUxAAminhaVidaEhMuitoSolitariaPenaqueodeiosereshumanosPoremAchoqueOdeiomaisAmim</t>
+  </si>
+  <si>
+    <t>Dinossauros provavelmente não emitiam um rugido, mas um grasno.</t>
+  </si>
+  <si>
+    <t>rugido</t>
   </si>
   <si>
     <t>eUamoQueDinossaurosSaoUmaGalinhaElefanteEuSoQueriaJurassicPark10milOndeElesFazemDesfileComPenaDeTREXVivaOmovimentoVeganista</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nem tudo é show, mas você está um espetáculo                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> show                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cantada              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> euQueroUmaNamorada                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Três tigres tristes plantam três ramos de trigo para atrair três cervos tristes pra comer pão com catuaba          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> três                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> confraternização     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aquiÉpraserUmCampoAleatorioMasEuAdoroComentarskfmksnfPalavrasAleatoriaskjfnkjfv                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gatos agricultores fazem um milharal.                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gatos                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> agricultores         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MIAUlharal_Entendeu?kkHUMOR                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se você diz que não é falsa, mas finge orgasmo, está mentindo ou dizendo a verdade?                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> orgasmo               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mentira              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jakdaiosdoa ohddahsdoknak niahnaosdaio hoandkjnasjkdn                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No espaço ninguém vai te ouvir gritar                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gritar               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bnasdvhmdvhXBdkxdgkUBXguixbgku                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jacarés fazem tocas tão complexas quanto de castores.                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jacarés               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tocas                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tmj                                                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Urubus possuem um ritual de voar em círculos ao que especialistas atribuem ser para digerir comida com ozônio      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Urubus                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ozônio               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asjashjkdkasd kjndijabsjdba ndkabdkjbais kahkdasjd                                                                          </t>
+    <t>Nem tudo é show, mas você está um espetáculo</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>espetáculo</t>
+  </si>
+  <si>
+    <t>euQueroUmaNamorada</t>
+  </si>
+  <si>
+    <t>Três tigres tristes plantam três ramos de trigo para atrair três cervos tristes pra comer pão com catuaba</t>
+  </si>
+  <si>
+    <t>três</t>
+  </si>
+  <si>
+    <t>tigres</t>
+  </si>
+  <si>
+    <t>aquiÉpraserUmCampoAleatorioMasEuAdoroComentarskfmksnfPalavrasAleatoriaskjfnkjfv</t>
+  </si>
+  <si>
+    <t>Gatos agricultores fazem um milharal.</t>
+  </si>
+  <si>
+    <t>agricultores</t>
+  </si>
+  <si>
+    <t>MIAUlharal_Entendeu?kkHUMOR</t>
+  </si>
+  <si>
+    <t>Se você diz que não é falsa, mas finge orgasmo, está mentindo ou dizendo a verdade?</t>
+  </si>
+  <si>
+    <t>orgasmo</t>
+  </si>
+  <si>
+    <t>mentindo</t>
+  </si>
+  <si>
+    <t>jakdaiosdoa ohddahsdoknak niahnaosdaio hoandkjnasjkdn</t>
+  </si>
+  <si>
+    <t>No espaço ninguém vai te ouvir gritar</t>
+  </si>
+  <si>
+    <t>espaço</t>
+  </si>
+  <si>
+    <t>gritar</t>
+  </si>
+  <si>
+    <t>bnasdvhmdvhXBdkxdgkUBXguixbgku</t>
+  </si>
+  <si>
+    <t>Jacarés fazem tocas tão complexas quanto de castores.</t>
+  </si>
+  <si>
+    <t>Jacarés</t>
+  </si>
+  <si>
+    <t>tocas</t>
+  </si>
+  <si>
+    <t>tmj uylujhlv ljliugliuglilpig liugiy</t>
+  </si>
+  <si>
+    <t>Urubus possuem um ritual de voar em círculos ao que especialistas atribuem ser para digerir comida com ozônio</t>
+  </si>
+  <si>
+    <t>Urubus</t>
+  </si>
+  <si>
+    <t>ozônio</t>
+  </si>
+  <si>
+    <t>asjashjkdkasd kjndijabsjdba ndkabdkjbais kahkdasjd</t>
   </si>
   <si>
     <t>Os polvos possuem 3 corações</t>
   </si>
   <si>
-    <t xml:space="preserve"> polvos                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> corações             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sajkdnaklndoasdkasdn anodnjanjkanjkdnaknd anndajkndjkandjkabnsjkd                                                           </t>
+    <t>polvos</t>
+  </si>
+  <si>
+    <t>corações</t>
+  </si>
+  <si>
+    <t>sajkdnaklndoasdkasdn anodnjanjkanjkdnaknd anndajkndjkandjkabnsjkd</t>
   </si>
   <si>
     <t>Os polvos possuem 9 cérebros</t>
   </si>
   <si>
-    <t xml:space="preserve"> cérebros             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jkandjkandjknajkdnajkndk nsdknakdnjkabdjkandjk nadnjkandjkanjkdnajkdn                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Escorpiões brilham no escuro ao serem expostos a raios ultra-violeta de luz negra                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> escorpiões            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> brilham              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ajanjkdajhdjasd adajsdjasdjbasjdb ajdjkabdjabjdbajsdbjkasnbdjkabsjdkakd ka d socorro                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beija-flores podem voar em qualquer um dos três eixos espaciais                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> beija-flor            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eixos                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ksndknadnajsndjasnd nsdnajndjandjna aisndjansdjandjan                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peixes cartilaginosos possuem um par de órgões genitais chamados clásper                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tubarões              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> clásper              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sanjnsjdnaj njdanjdnjasn babdjbasbdhajsb                                                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uma informação incompleta pode se categorizar como uma falsa verdade.                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> verdade               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> comunicação          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knflsnlnlnvns                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pinguins possuem joelho                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pinguins              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> joelho               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eklncnkrlkelespossuemjoelho                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A terra é um geoide, rendondo só a barriga de chopp do seu pai                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> planeta               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> geografia            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mhbjhxfdnxngvmj                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A cola de post-it era uma super cola que falhou. Falhe mais.                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> falha                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> invenção             </t>
+    <t>cérebros</t>
+  </si>
+  <si>
+    <t>jkandjkandjknajkdnajkndk nsdknakdnjkabdjkandjk nadnjkandjkanjkdnajkdn</t>
+  </si>
+  <si>
+    <t>Escorpiões brilham no escuro ao serem expostos a raios ultra-violeta de luz negra</t>
+  </si>
+  <si>
+    <t>escorpiões</t>
+  </si>
+  <si>
+    <t>brilham</t>
+  </si>
+  <si>
+    <t>ajanjkdajhdjasd adajsdjasdjbasjdb ajdjkabdjabjdbajsdbjkasnbdjkabsjdkakd ka d socorro</t>
+  </si>
+  <si>
+    <t>Beija-flores podem voar em qualquer um dos três eixos espaciais</t>
+  </si>
+  <si>
+    <t>voar</t>
+  </si>
+  <si>
+    <t>eixos</t>
+  </si>
+  <si>
+    <t>ksndknadnajsndjasnd nsdnajndjandjna aisndjansdjandjan</t>
+  </si>
+  <si>
+    <t>Peixes cartilaginosos possuem um par de órgões genitais chamados clásper</t>
+  </si>
+  <si>
+    <t>Peixes</t>
+  </si>
+  <si>
+    <t>cartilaginosos</t>
+  </si>
+  <si>
+    <t>sanjnsjdnaj njdanjdnjasn babdjbasbdhajsb</t>
+  </si>
+  <si>
+    <t>Uma informação incompleta pode se categorizar como uma falsa verdade.</t>
+  </si>
+  <si>
+    <t>informação</t>
+  </si>
+  <si>
+    <t>incompleta</t>
+  </si>
+  <si>
+    <t>knflsnlnlnvns</t>
+  </si>
+  <si>
+    <t>Pinguins possuem joelho</t>
+  </si>
+  <si>
+    <t>pinguins</t>
+  </si>
+  <si>
+    <t>joelho</t>
+  </si>
+  <si>
+    <t>eklncnkrlkelespossuemjoelho</t>
+  </si>
+  <si>
+    <t>A terra é um geoide, rendondo só a barriga de chopp do seu pai</t>
+  </si>
+  <si>
+    <t>geoide</t>
+  </si>
+  <si>
+    <t>mhbjhxfdnxngvmj</t>
+  </si>
+  <si>
+    <t>A cola de post-it era uma super cola que falhou. Falhe mais.</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>cola</t>
   </si>
   <si>
     <t>ncekjfckwjfnwjf94942SeEhverdadeEunaoseimaseuseiqueEuOuvi</t>
   </si>
   <si>
-    <t xml:space="preserve"> A Lua é uma dobradora de água                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lua                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> natureza             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jdnf,jddsf                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Doutor Estranho poderia ter matado o Thanos sozinho, mas ele é estranho                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antisocial            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> legal                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jvnsdkjfnvs                                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abelhas brasileiras não possuem ferrão                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abelhas               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> brasileiras          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wevclsjkcnleksjcbleksbc                                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Libélulas são animais conhecidos por possuírem um dos mais acelerados metabolismos do mundo animal                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> libélulas             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> metabolismo          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hnajsbdhabjdbajshd nadbasbdjhasbdhbashdbas basbdjabsdjbasjdbasjdbja                                                         </t>
+    <t>A Lua é uma dobradora de água</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>água</t>
+  </si>
+  <si>
+    <t>jdnf,jddsf</t>
+  </si>
+  <si>
+    <t>Doutor Estranho poderia ter matado o Thanos sozinho, mas ele é estranho</t>
+  </si>
+  <si>
+    <t>Doutor</t>
+  </si>
+  <si>
+    <t>Estranho</t>
+  </si>
+  <si>
+    <t>jvnsdkjfnvs</t>
+  </si>
+  <si>
+    <t>Abelhas brasileiras não possuem ferrão</t>
+  </si>
+  <si>
+    <t>abelhas</t>
+  </si>
+  <si>
+    <t>brasileiras</t>
+  </si>
+  <si>
+    <t>ciência</t>
+  </si>
+  <si>
+    <t>Libélulas são animais conhecidos por possuírem um dos mais acelerados metabolismos do mundo animal</t>
+  </si>
+  <si>
+    <t>Libélulas</t>
+  </si>
+  <si>
+    <t>metabolismos</t>
+  </si>
+  <si>
+    <t>hnajsbdhabjdbajshd nadbasbdjhasbdhbashdbas basbdjabsdjbasjdbasjdbja</t>
   </si>
   <si>
     <t>Libélulas são capazes de comer até 14% do seu peso em um único dia</t>
   </si>
   <si>
-    <t xml:space="preserve"> libélulasl            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> comer                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kakakakak silviosantos asjahsjaksh                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se a existência vem em ciclos, vida após a morte está para morte após a vida.                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> duvida                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> existencia           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nefs,cnew                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Álcool em excesso faz o bem no reverso.                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rima                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> humor                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iloveyouiloveyoucoroteeee                                                                                                   </t>
+    <t>comer</t>
+  </si>
+  <si>
+    <t>kakakakak silviosantos asjahsjaksh</t>
+  </si>
+  <si>
+    <t>Libélulas batem suas asas em média 50 vezes por segundo</t>
+  </si>
+  <si>
+    <t>Libéluas</t>
+  </si>
+  <si>
+    <t>asas</t>
+  </si>
+  <si>
+    <t>ljkadn;cjlanc;kajdnc;ljajnc'laac</t>
+  </si>
+  <si>
+    <t>Se a existência vem em ciclos, vida após a morte está para morte após a vida.</t>
+  </si>
+  <si>
+    <t>morte</t>
+  </si>
+  <si>
+    <t>sd;llcnsdkcnsdlkn'slnefs,cnew</t>
+  </si>
+  <si>
+    <t>Álcool em excesso faz o bem no reverso.</t>
+  </si>
+  <si>
+    <t>Álcool</t>
+  </si>
+  <si>
+    <t>excesso</t>
+  </si>
+  <si>
+    <t>iloveyouiloveyoucoroteeee</t>
   </si>
   <si>
     <t>Too far from over you, Beams from your M2</t>
   </si>
   <si>
-    <t xml:space="preserve"> musica                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> glassanimals         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sfkjnvkvn                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lava, escorre, agita a areia. E enfim, na bateia, fica uma pepita.                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poema                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> haikai               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> .kvfs.jb sBEJN.KFS                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fiquei bom da vista! Depressa, Um oculista!                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gfxm,ctg                                                                                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olha, Entre um pingo e ouro A chuva não molha                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jfdncfkjnwkejvfev                                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O choro da lua é um mar agitado.                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> reflexão             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cn'kjfnvwkfjev                                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reflexão sem ação é um não não.                                                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jncfwelfbcvlwef sem ideias jfnclwekjfnekjv                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mais vale um pirão na mão que dois jujuba no chão                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> humor                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ditado               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> evnw ekjvfekjvn                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Calorimetria, a metria do calor, do teu calor só sabia  mentia.                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sofrência            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dfvjnv.jkev                                                                                                                 </t>
+    <t>Beams</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>sfkjnvkvn</t>
+  </si>
+  <si>
+    <t>Lava, escorre, agita a areia. E enfim, na bateia, fica uma pepita.</t>
+  </si>
+  <si>
+    <t>bateia</t>
+  </si>
+  <si>
+    <t>pepita</t>
+  </si>
+  <si>
+    <t>kvfs.jb sBEJN.KFS</t>
+  </si>
+  <si>
+    <t>Fiquei bom da vista! Depressa, Um oculista!</t>
+  </si>
+  <si>
+    <t>Depressa</t>
+  </si>
+  <si>
+    <t>oculista</t>
+  </si>
+  <si>
+    <t>gfxm,ctg</t>
+  </si>
+  <si>
+    <t>Olha, Entre um pingo e ouro A chuva não molha</t>
+  </si>
+  <si>
+    <t>pingo</t>
+  </si>
+  <si>
+    <t>ouro</t>
+  </si>
+  <si>
+    <t>jfdncfkjnwkejvfev</t>
+  </si>
+  <si>
+    <t>O choro da lua é um mar agitado.</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>cn'kjfnvwkfjev</t>
+  </si>
+  <si>
+    <t>Reflexão sem ação é um não não.</t>
+  </si>
+  <si>
+    <t>Reflexão</t>
+  </si>
+  <si>
+    <t>ação</t>
+  </si>
+  <si>
+    <t>jncfwelfbcvlwef sem ideias jfnclwekjfnekjv</t>
+  </si>
+  <si>
+    <t>Mais vale um pirão na mão que dois jujuba no chão</t>
+  </si>
+  <si>
+    <t>pirão</t>
+  </si>
+  <si>
+    <t>jujuba</t>
+  </si>
+  <si>
+    <t>evnw ekjvfekjvn</t>
+  </si>
+  <si>
+    <t>Calorimetria, a metria do calor, do teu calor só sabia  mentia.</t>
+  </si>
+  <si>
+    <t>metria</t>
+  </si>
+  <si>
+    <t>calor</t>
+  </si>
+  <si>
+    <t>dfvjnv.jkevdsvsgaebasdbasebsebae</t>
+  </si>
+  <si>
+    <t>O sol um dia vai explodir e matar todos a sua volta</t>
+  </si>
+  <si>
+    <t>matar</t>
+  </si>
+  <si>
+    <t>odwiodnweiudweiduh</t>
+  </si>
+  <si>
+    <t>Todo sapato tem seu par</t>
+  </si>
+  <si>
+    <t>sapato</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>doiemwdoiwdewiodjiojvoijw</t>
+  </si>
+  <si>
+    <t>O jogo só acaba quando termina</t>
+  </si>
+  <si>
+    <t>jogo</t>
+  </si>
+  <si>
+    <t>termina</t>
+  </si>
+  <si>
+    <t>owiedwoidjweiodjwedoweijd</t>
+  </si>
+  <si>
+    <t>O primeiro passo para alcançar um sonho é acreditar</t>
+  </si>
+  <si>
+    <t>alcançar</t>
+  </si>
+  <si>
+    <t>acreditar</t>
+  </si>
+  <si>
+    <t>kdmweodweoidjdwdoiwejdewoijceiocjwcwecosikjiodjwdioubnqwduqwidnweidujcwuiejc</t>
+  </si>
+  <si>
+    <t>Para virar um titã você tem que morder seu braço</t>
+  </si>
+  <si>
+    <t>titã</t>
+  </si>
+  <si>
+    <t>morder</t>
+  </si>
+  <si>
+    <t>owidoeidjouihoiuhoiuhoiuhuvuivbiinoinjononoiojniiojnkmkm</t>
+  </si>
+  <si>
+    <t>A feijoada é considerada o prato nacional do Brasil.</t>
+  </si>
+  <si>
+    <t>feijoada</t>
+  </si>
+  <si>
+    <t>nacional</t>
+  </si>
+  <si>
+    <t>lvijnapwivnpaweovnpawojenvp efcjaepoivnapeib</t>
+  </si>
+  <si>
+    <t>Existem mais formas de vida vivendo na sua pele do que humanos habitando a Terra. Esta, certamente, é uma das curiosidades do mundo mais impactantes.</t>
+  </si>
+  <si>
+    <t>vivendo</t>
+  </si>
+  <si>
+    <t>pele</t>
+  </si>
+  <si>
+    <t>ljanwe;vj ae v;peojnfcpOAENCopinaepcon poivnav</t>
+  </si>
+  <si>
+    <t>Em média, cada pessoa perde 4kg de pele morta em um ano</t>
+  </si>
+  <si>
+    <t>morta</t>
+  </si>
+  <si>
+    <t>awlefjnpawejonfpoawnef awpoafnaewpoifnop[aiwenf ewopfiawponf</t>
+  </si>
+  <si>
+    <t>Charles Osborne teve uma crise de soluços que durou, nada mais nada menos que, 69 anos. Começou em 1922, quando pesava um cerdo para sacrificá-lo e só parou quando ele já tinha 97 anos.</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>soluços</t>
+  </si>
+  <si>
+    <t>a;okanespojvnpaeosvnpaow pacowencpoawenpovnawe awpovnpaowenvpoawenpvwv</t>
+  </si>
+  <si>
+    <t>Todas as pessoas que têm olhos azuis têm um mesmo ancestral em comum.</t>
+  </si>
+  <si>
+    <t>olhos</t>
+  </si>
+  <si>
+    <t>azuis</t>
+  </si>
+  <si>
+    <t>f;ojneawpiunawpiuvb apovjnepawuivnpaiwuvnpiausns zpsovnpsonvposna</t>
+  </si>
+  <si>
+    <t>Em suma,  composição química das lágrimas é diferente dependendo de seu motivo. Por exemplo, se são emocionais ou causadas por uma irritação ou bocejo a composição varia.</t>
+  </si>
+  <si>
+    <t>química</t>
+  </si>
+  <si>
+    <t>lágrimas</t>
+  </si>
+  <si>
+    <t>lakesj nlkjas vlk SDLkvc lkszjvpjsnepcjanwe alefboaBfelsbflsJb flsefbpabcajkbefpajwebf ;eakjenfakljenfpakj f;ekajhfkajwnflak efljwhflakejwhf</t>
+  </si>
+  <si>
+    <t>Quando um casal pratica a posição ‘missionário’,o órgão masculino pode se curvar. Aliás, é possível que ele alcance a forma de um bumerangue.</t>
+  </si>
+  <si>
+    <t>órgão</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>a;lwefknpaejwkfhpoaw fepoashfpasnflkjeashf laesjhfoaeilsuhfoaisuhflakwhfleiauwhf pajhelksjnfphjeafoahwpifuhaoiuhasofhawhf</t>
+  </si>
+  <si>
+    <t>O maior falo registrado até hoje é de Jonah Falcon. Este, aliás, é um estadunidense de Nova York (EUA), com 34,29 cm.</t>
+  </si>
+  <si>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>flijahesopifbaweijfhojefljasfejs foaieuf aoeifhaoiwufgh oaeiuhfoa flaehf oiaewhbfoia oeidbfoiawebfa</t>
+  </si>
+  <si>
+    <t>O clitóris é a parte do corpo feminino com o maior número de terminações nervosas.</t>
+  </si>
+  <si>
+    <t>clitóris</t>
+  </si>
+  <si>
+    <t>terminações</t>
+  </si>
+  <si>
+    <t>wlefkjbaowefbaeiw flaejhfoeasj foajshfoiasehpfioeaba</t>
+  </si>
+  <si>
+    <t>A vagina é capaz de se manter limpa sozinha. Por isso, é preciso ter muito cuidado com o tipo de sabonete que se usa nesta região.</t>
+  </si>
+  <si>
+    <t>vagina</t>
+  </si>
+  <si>
+    <t>limpa</t>
+  </si>
+  <si>
+    <t>faewljfhaewljfbpjawenbf aewoiaufhoaiwuebflkjab ewofjbaowiejlbfno awhofiawe</t>
+  </si>
+  <si>
+    <t>O cérebro é um órgão extraordinário. Isso porque comanda todo o organismo humano. Além disso, é o único que não pode sentir dor.</t>
+  </si>
+  <si>
+    <t>cérebro</t>
+  </si>
+  <si>
+    <t>dor</t>
+  </si>
+  <si>
+    <t>afljeaoifuhaeowifboiawebfoieawfhoaiewfhboiaeuwhfoiauewhfoaiewhfoiaewbfoiaewbfoebfoiaewbfoawofhbewobfoew</t>
+  </si>
+  <si>
+    <t>Em suma, 30% do sangue bombeado pelo coração vai direto para o cérebro.</t>
+  </si>
+  <si>
+    <t>sangue</t>
+  </si>
+  <si>
+    <t>coração</t>
+  </si>
+  <si>
+    <t>awflejfjawenflijaew afljkehfoaehbofliaeb falekjwhf</t>
+  </si>
+  <si>
+    <t>Uma pesquisa publicada pela revista Nature Neuroscience afirma que a atividade cerebral é única. Ou seja, ela não é igual em ninguém, assim como quanto as impressões digitais.</t>
+  </si>
+  <si>
+    <t>atividade</t>
+  </si>
+  <si>
+    <t>cerebral</t>
+  </si>
+  <si>
+    <t>awelkfjhaepwijfb ealfjhaehlbflkajehbfouafblaehjkwbf akehgfoiauhbsfkajbe slifjebofiuaggfoijlasbe foliaewhfboilshbflaiseuhbfkaeubfousaebf aekjhfbaoegfae</t>
+  </si>
+  <si>
+    <t>Coincidência ou não, a maior parte dos ataques cardíacos acontecem às segundas-feira.</t>
+  </si>
+  <si>
+    <t>ataques</t>
+  </si>
+  <si>
+    <t>cardíacos</t>
+  </si>
+  <si>
+    <t>aslfuihaeolfbnlakjes flakjesbfohabfoiaesgofihaeisbfhojlfehboaiwjfnaoiwfeh</t>
+  </si>
+  <si>
+    <t>A decomposição do corpo humano começa apenas 4 minutos depois da morte.</t>
+  </si>
+  <si>
+    <t>decomposição</t>
+  </si>
+  <si>
+    <t>corpo</t>
+  </si>
+  <si>
+    <t>falefhoaieushfbljksenfoiuahewoilnaewoiufhaoewiufhoiaeuhfoiawbfoiuawhfoiuhaeoisfhoaw</t>
+  </si>
+  <si>
+    <t>Os sintomas de um ataque cardíaco são diferentes para homens e mulheres.</t>
+  </si>
+  <si>
+    <t>ataque</t>
+  </si>
+  <si>
+    <t>cardíaco</t>
+  </si>
+  <si>
+    <t>lkawgefoiablefihgaewoilfnoisebovawuinv aofavoiwebpviuawvaf</t>
+  </si>
+  <si>
+    <t>As pastas de dente bloqueiam os receptores de sabores doces da língua.</t>
+  </si>
+  <si>
+    <t>pastas</t>
+  </si>
+  <si>
+    <t>dente</t>
+  </si>
+  <si>
+    <t>ldjvblSKJbvdljSDBvljSDbnv SDLvohASjvchDASKJLcnoDISuhvlSDJHvcoiDSJVN</t>
+  </si>
+  <si>
+    <t>No século 19, os molares de algumas pessoas explodiam sem aviso prévio. Em suma, a explosão era causada pelos produtos usados para cobrir cáries.</t>
+  </si>
+  <si>
+    <t>molares</t>
+  </si>
+  <si>
+    <t>explodiam</t>
+  </si>
+  <si>
+    <t>a;lcjonpADSOcjpoAjcposzdnvoisurbvoisudfnbvoisurdbv sdfobiuvhdoriunvoiurdnvoisurhovisuhrnoivunsroivnosrijnvoisrbv</t>
+  </si>
+  <si>
+    <t>Respirar pela boca o tempo todo pode causar cáries e modificar o formato da mandíbula. Uma das curiosidades do mundo mais chocantes, hein?</t>
+  </si>
+  <si>
+    <t>boca</t>
+  </si>
+  <si>
+    <t>elkcjbaseoivbaoseiuvboaeisbvoiasebvojaesbnovbnosaejnvoiasenbvoiaenbsiovneosivjnoaisvoiezsnpvinaepsivnoiasnvoiarvpioarovs</t>
+  </si>
+  <si>
+    <t>Quando você fala para si mesmo, por exemplo, enquanto lê, essa ‘voz’ interior é acompanhada de movimentos muito sutis da laringe.</t>
+  </si>
+  <si>
+    <t>movimentos</t>
+  </si>
+  <si>
+    <t>laringe</t>
+  </si>
+  <si>
+    <t>aekjbvcopiasbrnvoipnasopivnasoinvpsijncpaiewunvpiuawnpivunsfoievoidtnvoidrvrdvl</t>
+  </si>
+  <si>
+    <t>Beijar um bebê na orelha pode deixá-lo surdo.</t>
+  </si>
+  <si>
+    <t>bebê</t>
+  </si>
+  <si>
+    <t>orelha</t>
+  </si>
+  <si>
+    <t>vpsornvpisunpdrjnvjdxnrpvnpdrnxvpxndpvnxdr</t>
+  </si>
+  <si>
+    <t>As três famílias mais ricas do mundo têm mais dinheiro que a riqueza dos 48 países mais pobres do mundo.</t>
+  </si>
+  <si>
+    <t>famílias</t>
+  </si>
+  <si>
+    <t>ricas</t>
+  </si>
+  <si>
+    <t>droijvnpsirenvpisrenvpinsprdinvpjnrdpgnpisurenvpiusnrposvnsdpofnvvs</t>
+  </si>
+  <si>
+    <t>A cerveja não era considerada uma bebida alcoólica na Rússia até o ano de 2011. Afinal, até então era classificada como um refresco.</t>
+  </si>
+  <si>
+    <t>bebida</t>
+  </si>
+  <si>
+    <t>alcoólica</t>
+  </si>
+  <si>
+    <t>dorivnpisudrnvpiurshviouhrs vpoisurhvpiusrhpoviuhrspiuv rspoiuhv piurh vpiuh rspgrs hvoirsuhpvuirsvrvs</t>
+  </si>
+  <si>
+    <t>Os homens são 6 vezes mais propensos a serem atingidos por um raio do que as mulheres.</t>
+  </si>
+  <si>
+    <t>atingidos</t>
+  </si>
+  <si>
+    <t>raio</t>
+  </si>
+  <si>
+    <t>vposiruhvposir vpoisjrhpiovu rspijvhpoiusrhvpiusrhvp hpfioshvpsieruhvp</t>
+  </si>
+  <si>
+    <t>Nos Estados Unidos, aliás, existem mais casas vazias do que moradores de rua.</t>
+  </si>
+  <si>
+    <t>casas</t>
+  </si>
+  <si>
+    <t>vazias</t>
+  </si>
+  <si>
+    <t>orvivhpaiurhvpisruhvpisdrnviporsnvpirsnviuorabvpirsunvoirsvnbpsrjvnbrpiuvnpriuvbrpiv rhivboirlv arpiovbs</t>
+  </si>
+  <si>
+    <t>É mais provável que uma pessoa morra com um coco caindo sobre a sua cabeça do que por um ataque de tubarão.</t>
+  </si>
+  <si>
+    <t>coco</t>
+  </si>
+  <si>
+    <t>tubarão</t>
+  </si>
+  <si>
+    <t>vpiouahrpiuvrnapihrsoiuvhrpsuivnprsainvouiarsbvoirsanvpiarunvlirjnvoiranvoirsnvpirnvpjsrnvpirvpnpernv</t>
+  </si>
+  <si>
+    <t>Estados Unidos, Birmânia e Libéria são os únicos países no mundo que não usam o sistema métrico como padrão de medição.</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>métrico</t>
+  </si>
+  <si>
+    <t>povihaspeiuchpiaesuhcpioaeushfpiuarhvpirnvpisrnvpiursnviournvounuinraounrvyornvrvorvorvynroynvyornvorsv</t>
+  </si>
+  <si>
+    <t>Cerca de 2.500 pessoas canhotas morrem a cada ano. Porque inúmeros acidentes são causados por equipamentos e ferramentas criadas para destros.</t>
+  </si>
+  <si>
+    <t>canhotas</t>
+  </si>
+  <si>
+    <t>morrem</t>
+  </si>
+  <si>
+    <t>sa;ocjsepoihcpiousenvrs vpoirbvoienpvneoiucawoinvceancpieszubvoisernvanrsvoibespvnzpsdkvnpiuorenspviuanewv</t>
+  </si>
+  <si>
+    <t>Em 2006, um australiano tentou vender a Nova Zelândia (o país) no eBay. A propósito, o preço chegou a 3 mil dólares. Contudo, quando o sistema do eBay percebeu do que se tratava, seus administradores suspenderam a oferta.</t>
+  </si>
+  <si>
+    <t>vender</t>
+  </si>
+  <si>
+    <t>país</t>
+  </si>
+  <si>
+    <t>svsdvszdvlszdfijvnlofdskjnvlkszdjnvlkjdsznvlkzdsjnvlkjzdsnvlkjzdnslkvjznskvljndspzjnvisrjnvpoizsrvjsvsenvoiehoivuesnpci</t>
+  </si>
+  <si>
+    <t>Fredric John Bauer foi o criador da lata das batatas Pringles. Quando ele morreu em 2008 suas cinzas foram colocadas em uma delas.</t>
+  </si>
+  <si>
+    <t>batatas</t>
+  </si>
+  <si>
+    <t>Pringles</t>
+  </si>
+  <si>
+    <t>poaesnvpiznsepviunzsopivnpzsinvpisrnvoiursnvoiursnpviurnvpirsnvoirnovianrvopinwpviunrov</t>
+  </si>
+  <si>
+    <t>Em Nova York (EUA) é proibido vender uma casa mal assombrada sem avisar ao comprador.</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>assombrada</t>
+  </si>
+  <si>
+    <t>esoivnpseiunvpiusenvpiosenvpioenespizvnpoaeisvnpizsernvpiznsepvjnpizesnvpiszenpvineszv</t>
+  </si>
+  <si>
+    <t>O primeiro telefone móvel inventado custava 3.995 dólares.</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>móvel</t>
+  </si>
+  <si>
+    <t>ldoshvpsdnvpsnvpjsnlvjnaeoivnzpsijnvzpsjnvpzsndvonszdvpjznsdlvnszdzvv</t>
+  </si>
+  <si>
+    <t>No Japão você pode comprar um sorvete com sabor de enguia.</t>
+  </si>
+  <si>
+    <t>sorvete</t>
+  </si>
+  <si>
+    <t>enguia</t>
+  </si>
+  <si>
+    <t>slecjnzsdlkjvnpizsjndvjlnsdvpjnespivjnespivnpzsnv;kndsk;vjnzslvn;pzdsnvp;zdnsj</t>
+  </si>
+  <si>
+    <t>Mais de 1.000.000 de euros são jogados na‘Fontana de Trevi’ (Itália). De tempos em tempos a prefeitura de Roma recolhe as moedas e doa para a caridade.</t>
+  </si>
+  <si>
+    <t>moedas</t>
+  </si>
+  <si>
+    <t>caridade</t>
+  </si>
+  <si>
+    <t>;oivhpizuvhpzsdivnzosiunprijvnodfiunvoidpxn pixdfjnvipoxdjfnvpiuzdfn pinv jpznspv fnnvlozdfijnvlzdfjnvldnfvolijnfdpvijnpdirunvpidfnvpjidzfnvljzfdsnvpzdfnvpodfns</t>
+  </si>
+  <si>
+    <t>Quer atrair um felino? Invista na colônia“Obsession For Men”, de Calvin Klein. Os tigres, jaguares e leopardos adoram esse cheiro.</t>
+  </si>
+  <si>
+    <t>cheiro</t>
+  </si>
+  <si>
+    <t>sdzpovnpsnvpuiaesvpiounsepiouvnpsoenvpoesnvpoesnbpiugprsiunvgpisunvpiusznvpiouzsnvpoiunzspiuvnpueivnpzsoinvpiounzzpo[snvpozsnvponzspvnpzsnvpondzspvozsnvponzsev</t>
+  </si>
+  <si>
+    <t>Usain Bolt exige que todas as fotografias tiradas dele sejam realizadas na Jamaica, seu país de origem. Assim ele contribui economicamente para o seu país.</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>vsdpvjpsdiovhpsozihbvpisdhpviuhdsvpiludhcv;oiehspcvoihzbespovhbzpsovhbposzihvbpiozshvpozshbvpiohzbspvhposdvhzoshvpzshvpzshdvpiohzsdpiozvhzpioshvpozsdhvpzdshvpodshzvpiohzdspovhbposdzhvpozdshbvpozdshpvohzdspoivhz</t>
+  </si>
+  <si>
+    <t>A maioria dos sanitários em Hong Kong utilizam água do mar. Isso acontece para conservarem ao máximo a pouca quantidade de água doce que tem disponível.</t>
+  </si>
+  <si>
+    <t>doce</t>
+  </si>
+  <si>
+    <t>dvsdvpisdbvpijnsdpicnszdoizvnpszinnf pirszhgpusrhgsrgrsgdb</t>
+  </si>
+  <si>
+    <t>Leonardo Di Caprio recebeu esse nome porque enquanto sua mãe observava um quadro de Leonardo Da Vinci, na Itália, ele deu um chute em sua barriga. E ela o acontecido como um sinal.</t>
+  </si>
+  <si>
+    <t>chute</t>
+  </si>
+  <si>
+    <t>barriga</t>
+  </si>
+  <si>
+    <t>vsdjvbzdsjvbslkbvzlsjkbvlkjzsbvlkzs vsthbdtdrljvoszhbvvxtbdtbd</t>
+  </si>
+  <si>
+    <t>Em Las Vegas você pode dirigir uma escavadora dentro de uma caixa de areia gigante. A atração faz parte de um parque temático da cidade.</t>
+  </si>
+  <si>
+    <t>gigante</t>
+  </si>
+  <si>
+    <t>kjdshpviubsz;kjzvbouzsybv;jsd vpoybszv;lksdnpviuzbsdl;jkvbozdslnv[iszdhvoizbrslivbziosdfbvvl</t>
+  </si>
+  <si>
+    <t>Se você tem tatuagens e vai visitar o Japão, cuidado ao entrar em águas termais, em alguns locais é proibida a entrada de pessoas com tatuagem.</t>
+  </si>
+  <si>
+    <t>tatuagens</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>v;ozdishoivbzposenzvpzsdgvousdpivusbeouczse;lkvubpbzsoiruhvoiusrzbvhoysv;zshvnlkzsihcoisrjv;oishvoiszrg</t>
+  </si>
+  <si>
+    <t>Se algum dia você estiver procurando algo, olhe da direita para a esquerda. Por estarmos acostumados a ler da esquerda para a direita é mais fácil as coisas passarem despercebidas.</t>
+  </si>
+  <si>
+    <t>acostumados</t>
+  </si>
+  <si>
+    <t>esquerda</t>
+  </si>
+  <si>
+    <t>vgosznvoszihpszhgfiuszfnpizsugbosifhseoziufughifh;sozihvbkusezgcoizse;vszdkvbiydsgovzs</t>
+  </si>
+  <si>
+    <t>Cerca de 2/3 dos habitantes da Terra nunca viram neve na vida.</t>
+  </si>
+  <si>
+    <t>habitantes</t>
+  </si>
+  <si>
+    <t>Terra</t>
+  </si>
+  <si>
+    <t>iuvzseovn;zsjvbuioyzsehvipzsdnvljhzsebvipnzslvhhbzss</t>
+  </si>
+  <si>
+    <t>O único planeta do Sistema Solar que não tem nome de um deus, é o nosso.</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>voihzspvuhzs;ljvzosghpviursnvolizsrbvkuilzbsldvhbzslrv</t>
+  </si>
+  <si>
+    <t>No topo do famoso Monte Everest, existe uma cobertura para automóveis.</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>cobertura</t>
+  </si>
+  <si>
+    <t>vszovoybzsoivbzsoevbpirsznviosurbvoisznvpozsnblvjznvlkjzsdbvlkjzsbzvjnzsjnvzsnvpzsjdbnv</t>
+  </si>
+  <si>
+    <t>Um Boeing 747 levaria 120 bilhões de anos para cruzar a Via Láctea.</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>Láctea</t>
+  </si>
+  <si>
+    <t>sdpvunzsoibvpizsdnv;kzjsdfnvblkjzdfnvlkzjsdnvlkjzbnsdfkpjvnzdjklnvpzdsnvzjdsnv</t>
+  </si>
+  <si>
+    <t>Existem mais de 200 cadáveres de escaladores abandonados no Monte Everest. Porque clima é impossibilita de retirá-los dali. Contudo, isso não espanta os escaladores, que os usam como referência para se orientarem.</t>
+  </si>
+  <si>
+    <t>escaladores</t>
+  </si>
+  <si>
+    <t>abandonados</t>
+  </si>
+  <si>
+    <t>dvlszuhvpiuszdbnvljzdnslvkndljvznzdspvnzsfpdnvosziunvjlsdnvoiznroysvnpiuvnzprsbvpizsnvilzsndvlonzdpovnpsziournvoditnbpdxtnbpixdni vdropiuvoiudxnvolznsdvpiznfoinvdropvnpzsdfnvkjzdsfnvljkfdnvs</t>
+  </si>
+  <si>
+    <t>Uma série de meteoritos provenientes de Marte caíram na Terra, no deserto de Marrocos, em julho de 2011.</t>
+  </si>
+  <si>
+    <t>meteoritos</t>
+  </si>
+  <si>
+    <t>Marte</t>
+  </si>
+  <si>
+    <t>sdhvoiusdvoisdnvjdnjvncxojvnosdjfnvopisdnfvpnsdfjvnsdfjlnvljdfsnvjsdnvpisnvpiuc</t>
+  </si>
+  <si>
+    <t>A rotação da Terra está diminuindo gradualmente. A propósito, ela roda 17 milissegundos mais devagar a cada 100 anos. O que isso quer dizer? Que nossos dias estão cada vez mais longos. Mas nem tanto assim, só conseguiríamos notar daqui a 140 milhões de anos, quando um dia passaria a ter 25 horas.</t>
+  </si>
+  <si>
+    <t>rotação</t>
+  </si>
+  <si>
+    <t>vsvuhpsiudnvposdijpvisn vpsoijvhisdnvop iusdhovuisnodivhosidnvoisudhnvoiusdnvoiusdnvoiusdnvoiudsnvoidsunvoiusdnvoiusdnv odisuhvioudshvoiudhsvoiuhdsoiuvhdsoiuvhoiusdvoisduv sduihvoiudsvoiudsuhvipdshviupdshvoiuhdsoivuhdsoivhuosdivhos diouvhsdoiuvhsdoiuvbipusdvg</t>
+  </si>
+  <si>
+    <t>Cientistas calcularam que se fosse escavado um túnel através do centro da Terra, e uma pessoa pulasse ali dentro, demoraria 42 minutos e 12 segundos para atravessá-lo por completo.</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>vdpuhsdpivuhdspvhpiosdvpsnopienvpisnvpiusnvoijnrouivnosprnviuzsnvpnzspiudvnipuznspvnzpsnviundzspivnpzsdonvzpzodsfnvioudnfovndoinbvoixdnfbvpizdu vzufdhvpoizshdvpinzpdijfnvpizdfs</t>
+  </si>
+  <si>
+    <t>A Terra é o planeta mais denso do Sistema Solar.</t>
+  </si>
+  <si>
+    <t>planeta</t>
+  </si>
+  <si>
+    <t>denso</t>
+  </si>
+  <si>
+    <t>dsvpouhspiuvhspiuvhdxjnvlkjndponspdivnpios</t>
+  </si>
+  <si>
+    <t>É possível que a Terra tenha 4,54 bilhões de anos.</t>
+  </si>
+  <si>
+    <t>anos</t>
+  </si>
+  <si>
+    <t>qqwqwwiwqousnpiqusnoqibspiqnspqinspiqsnqnsoqbsqbsq</t>
+  </si>
+  <si>
+    <t>Em 1033, foi registrada uma impressionante temperatura. Afinal, não é todo dia que os termômetros batem os 136ºC.</t>
+  </si>
+  <si>
+    <t>temperatura</t>
+  </si>
+  <si>
+    <t>sqiosuhpqisjhpqijspqoi spoiqspoijqoiusnqipusnipqnspqiusnoiunpisucnoizdncpindsicndlkcnaslkcnpasbcjasc</t>
+  </si>
+  <si>
+    <t>Alguns pesquisadores acreditam que a Terra tinha duas luas. A segunda, contudo, teria colidido com a que conhecemos hoje. Portanto, acabou sendo destruída.</t>
+  </si>
+  <si>
+    <t>duas</t>
+  </si>
+  <si>
+    <t>luas</t>
+  </si>
+  <si>
+    <t>alksjcpiduznvoipo vibpsroiygvbposdirugyphgbodhgvdrlhgvpdorhbgovdrbhgpvzhr gvohzrd;gvnpsorgvnpoirsgpvodhrgpnosvgserhgvposdrhc</t>
+  </si>
+  <si>
+    <t>A Terra abriga vida por, aproximadamente, mais de 80% de sua existência.</t>
+  </si>
+  <si>
+    <t>vida</t>
+  </si>
+  <si>
+    <t>shvpodisuhcpaehpcoihefpsiuhgpnvshvgnpsorhgpnsohpvosihmgcpoisehpfoivenspoihvnposhmcpfoesmpoifxmesipomfiopcesf</t>
+  </si>
+  <si>
+    <t>Se todas as pessoas do mundo vivessem como um habitante médio dos Estados Unidos, seria preciso recursos de 4,5 planetas como o nosso.</t>
+  </si>
+  <si>
+    <t>vivessem</t>
+  </si>
+  <si>
+    <t>recursos</t>
+  </si>
+  <si>
+    <t>spoefhpseuhfpiusechnpeosfhcpeshcfnpoeshfpiceshfpesnfcsehnfpscngpiushnprvoghzpoihgvnozsihgv;sozhzpv hnsepofjwpeiefvpose</t>
+  </si>
+  <si>
+    <t>O ano de 1816 é conhecido como o “ano sem verão”. A propósito, diversos fenômenos que aconteceram na Terra, incluindo erupções vulcânicas, influenciaram este acontecimento. Por exemplo, a temperatura do planeta baixou tanto que, como resultado, não houve verão.</t>
+  </si>
+  <si>
+    <t>verão</t>
+  </si>
+  <si>
+    <t>pokwpoqkdpoaksmpawspwoamdopaw,xpk,wakpoz,apx,eipocmseopjcnoisrvnidrnvioudrnoviudrnoibvndsjob</t>
+  </si>
+  <si>
+    <t>A Ilha de Socotra é tão isolada que, por lá vivem espécies que não são encontradas em nenhum outro lugar do planeta. Não à toa, portanto, ficou conhecida como “o lugar mais estranho da Terra”.</t>
+  </si>
+  <si>
+    <t>Ilha</t>
+  </si>
+  <si>
+    <t>Socotra</t>
+  </si>
+  <si>
+    <t>esfhpaeibhvaeiohuhfblvaeuhflveafhabeilvuhvlaeuhalnhfb;kcaehcflkawjehfclaehf;veahflcbkehfklaehvlf</t>
+  </si>
+  <si>
+    <t>Em 1923, um tornado de fogo levou 38 mil pessoas à morte, em Tókio.</t>
+  </si>
+  <si>
+    <t>tornado</t>
+  </si>
+  <si>
+    <t>ftdyfuyglihibyuflitvbon9ypgiltfivtydbiuybrftioutvoilryivuygboiugliug oigoiultou</t>
+  </si>
+  <si>
+    <t>Muito antes das árvores, a Terra era coberta por cogumelos gigantes.</t>
+  </si>
+  <si>
+    <t>cogumelos</t>
+  </si>
+  <si>
+    <t>gigantes</t>
+  </si>
+  <si>
+    <t>odsihv[odisvpoisjpoimrhpoighsrpdoighrpxodn;gnxdpfvnbpoxrdjpvioxrndpovinrponvpodnr</t>
+  </si>
+  <si>
+    <t>De toda a vida animal que se desenvolveu no planeta, aproximadamente 80% têm 6 ou mais pernas.</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>pernas</t>
+  </si>
+  <si>
+    <t>sepovhsepiuvnpdncpoijrpoishpirufhpsruighpoishvpioushpovjsporihgjpiuosrhvpdhv;porshvposhrvposr</t>
+  </si>
+  <si>
+    <t>O thaumoctopus mimicus é um polvo capaz de mudar sua cor e imitar a de outros seres marinhos. Em suma, até hoje, são conhecidas 15 cores que ele pode imitar.</t>
+  </si>
+  <si>
+    <t>polvo</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>seoghfpeiosfhposeijfmpxoiehsfpoihepofgnseo;giposrihgpseihgpoenf;enfpousencpouenspocviseiopghsepofhpoesnfonesspofnwpovnjsnjvnse</t>
+  </si>
+  <si>
+    <t>Um beija-flor, afinal, pode pesar menos que uma moeda de um centavo.</t>
+  </si>
+  <si>
+    <t>pesar</t>
+  </si>
+  <si>
+    <t>moeda</t>
+  </si>
+  <si>
+    <t>fnepofnespohmpocihmvsrpioughpsirudghpsriudhgposnvpoinespoivnspoenvpsenposepghporshgporshgposhngpoisrpoignesoivns</t>
+  </si>
+  <si>
+    <t>Se um leão macho se torna o líder do grupo, ele mata todos os filhotes do líder anterior.</t>
+  </si>
+  <si>
+    <t>leão</t>
+  </si>
+  <si>
+    <t>filhotes</t>
+  </si>
+  <si>
+    <t>cspoieuchpiaesuhposehmgpiosenvjnsepvboseinvposenvpsenpvon;oenvliuniorsdurhzgpiuszrhgiusrnzvoiunspriuvnzpisnv</t>
+  </si>
+  <si>
+    <t>A língua das girafas pode chegar a medir 50 cm. Sobretudo, elas também as usam para limpar suas orelhas.</t>
+  </si>
+  <si>
+    <t>língua</t>
+  </si>
+  <si>
+    <t>girafas</t>
+  </si>
+  <si>
+    <t>ceaicjneapinvcpieuncpoivsejovcijpaoisjcopiajncpoianpeocnaponcoipawncoiunaoeicunoieuncoiuae coiuaecioupnawe</t>
+  </si>
+  <si>
+    <t>O corpo de uma água-viva é composto de 95% de água.</t>
+  </si>
+  <si>
+    <t>dawucnpiauwncpoiempoiunveioancjaneoiucniousndovinoidnrvhxnouhsdbvoisovinzs</t>
+  </si>
+  <si>
+    <t>Cães de pradaria se cumprimentam com beijos.</t>
+  </si>
+  <si>
+    <t>Cães</t>
+  </si>
+  <si>
+    <t>pradaria</t>
+  </si>
+  <si>
+    <t>poencpoenvpoaenpcoiniovnsoivbnoisbvoinoindvlinoiunbosiubvsevc</t>
+  </si>
+  <si>
+    <t>As vacas são capazes de definir suas melhores amigas e sofrem com as perdas.</t>
+  </si>
+  <si>
+    <t>vacas</t>
+  </si>
+  <si>
+    <t>sofrem</t>
+  </si>
+  <si>
+    <t>ponapicnpajncpmodzhoichsoiehuvsiouenvijesnvpiuesbnpivu evoiesiuvniouesnvoiunselivnlsndpovinse</t>
+  </si>
+  <si>
+    <t>A pele de uma rã dourada venenosa possui toxinas suficientes para matar 100 pessoas.</t>
+  </si>
+  <si>
+    <t>toxinas</t>
+  </si>
+  <si>
+    <t>pnespvnpizdnvpoihpeoishnvpoisinvpoinpushvpoinzdpviunoinvpinpivnpsieubpsiubvpiudnxpivnpsuenvpionsepovv</t>
+  </si>
+  <si>
+    <t>Ao contrário da crença popular, a cor vermelha não atiça os touros.</t>
+  </si>
+  <si>
+    <t>vermelha</t>
+  </si>
+  <si>
+    <t>touros</t>
+  </si>
+  <si>
+    <t>pionopnpovnespivnpiuebpinesopivunspiuvbpiusebvpiuenspvnepavnpianvojinspienvpiasnpvo</t>
+  </si>
+  <si>
+    <t>Os únicos mamíferos capazes de voar são os morcegos.</t>
+  </si>
+  <si>
+    <t>mamíferos</t>
+  </si>
+  <si>
+    <t>pcoiseniopvunsepiunvposinevioebnruybniosenvpiusnepuicnosdncoinse</t>
+  </si>
+  <si>
+    <t>Humanos e coalas possuem as digitais muito parecidas.</t>
+  </si>
+  <si>
+    <t>Humanos</t>
+  </si>
+  <si>
+    <t>coalas</t>
+  </si>
+  <si>
+    <t>cpoaencpiuanpocnpoancponaepocnpoanc;lkndcjnpoeanpconpaosncposndcoan</t>
+  </si>
+  <si>
+    <t>Uma formiga pode carregar até 60 vezes o seu peso.</t>
+  </si>
+  <si>
+    <t>formiga</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>opiwhcpoaencv;jadncjknba;jkcn;lskancl;knsalc;jknas;jnc;jkasnc;lknasc;lknas;a</t>
+  </si>
+  <si>
+    <t>Uma cobra píton grande é capaz de engolir uma cabra inteira.</t>
+  </si>
+  <si>
+    <t>engolir</t>
+  </si>
+  <si>
+    <t>cabra</t>
+  </si>
+  <si>
+    <t>awjncpiuesnpovnsdjnb isdnevpondzlkjcvnlajdsnv;nsd;klvn;sdlknv;skc</t>
+  </si>
+  <si>
+    <t>Em suma, 10% dos ossos de um gato estão presentes em sua cauda.</t>
+  </si>
+  <si>
+    <t>ossos</t>
+  </si>
+  <si>
+    <t>cauda</t>
+  </si>
+  <si>
+    <t>oahecpinopdsnv;jkndljvndosnv;kjlsdn;jkvn;ldsknv;klnsdjvnjsdnvnsdvnsdlkvc</t>
+  </si>
+  <si>
+    <t>Basicamente, um crocodilo do Nilo pode prender a respiração por até 2 horas.</t>
+  </si>
+  <si>
+    <t>crocodilo</t>
+  </si>
+  <si>
+    <t>respiração</t>
+  </si>
+  <si>
+    <t>ca;schpaeoihvpmismuhvnoiusrhgoinughrpghsrobiugulzsrngoiuzsrhgbiuzsrhbvbpiuhbrspbiuhprsibhpuirsg</t>
+  </si>
+  <si>
+    <t>Águas-vivas não possuem cérebro. Aliás, não têm também coração ou ossos. Para se movimentarem, portanto, usam os sensores nervosos presentes em seus tentáculos.</t>
+  </si>
+  <si>
+    <t>sensores</t>
+  </si>
+  <si>
+    <t>nervosos</t>
+  </si>
+  <si>
+    <t>dkjcnpiashcmpoiahpuignaoiagobiuagpiubpoiudgoiudgoisugsoiugboisugbosiuboiusgboiuboiusgboiugoisboigboigsiodugbdboigoisgoiusgbiuobiudgobiugdoiugbiosngiougnsioungosgoinusgoiusgiounsgoiud</t>
+  </si>
+  <si>
+    <t>Os únicos mamíferos que possuem menopausa são as fêmeas de elefantes, baleias jubarte e humanas.</t>
+  </si>
+  <si>
+    <t>menopausa</t>
+  </si>
+  <si>
+    <t>dcjpsdiovhposdhvpiudnpviodnpzviuhgpiuvhmdopzihvpoizhvpoinpvioushmopivhpoizdhvohzdpovhsdac</t>
+  </si>
+  <si>
+    <t>Em suma, o cheiro de um humano pode ser detectado por cães a mais de 1km de distância.</t>
+  </si>
+  <si>
+    <t>detectado</t>
+  </si>
+  <si>
+    <t>achapoichpozdimhvpoisehvpmioeshvpuigaenuvhapeohvpioahvopiaehviophaepoivheapoivhpaeoimvhpoieahvoipaehvpioeahiopvhaepiovmhpoiadmhv</t>
+  </si>
+  <si>
+    <t>Como forma preventiva, alguns patos podem dormir com um olho aberto e outro fechado.</t>
+  </si>
+  <si>
+    <t>dormir</t>
+  </si>
+  <si>
+    <t>aberto</t>
+  </si>
+  <si>
+    <t>esfgzsrgsnrsngrdxnxdrnhdtnhxtdnhrrdnxrdnhrdnhtd</t>
+  </si>
+  <si>
+    <t>Os pássaros-Lira são famosos por sua capacidade de imitar qualquer som que ouçam. Como, por exeplo, o choro de um bebê, os gritos de um macaco, o alarme de um despertador e até os barulhos que fazem uma máquina de construção.</t>
+  </si>
+  <si>
+    <t>imitar</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>hxtnxndtxndtnxdtnhdxnthtxnxfdjfmynjnxyjcfyncjnfyknyfjmxmrdzmrxxhrdnhrdnhrdhn</t>
+  </si>
+  <si>
+    <t>A mordida de um urso pardo é tão forte que pode partir, inclusive, uma bola de boliche.</t>
+  </si>
+  <si>
+    <t>mordida</t>
+  </si>
+  <si>
+    <t>forte</t>
+  </si>
+  <si>
+    <t>smsmgrsxmyzszenuuzsmurmrmxmujxdmdzrumzddrmzhmesheskskkskxxkmxrdnhxrnszgsnzszenzm</t>
+  </si>
+  <si>
+    <t>O rato-toupeira é um dos animais mais raros do planeta. Além de sua aparência incomum, é um dos mamíferos mais longevos, para suas dimensões. Eles, afinal, podem atingir os 30 anos.</t>
+  </si>
+  <si>
+    <t>animais</t>
+  </si>
+  <si>
+    <t>raros</t>
+  </si>
+  <si>
+    <t>nsyznybzdruntxnimuopojophjiphomjiopmhijpmhjphijomhiomhimhohijomiomijmohioimhom</t>
+  </si>
+  <si>
+    <t>Os cangurus não podem pular para trás.</t>
+  </si>
+  <si>
+    <t>cangurus</t>
+  </si>
+  <si>
+    <t>trás</t>
+  </si>
+  <si>
+    <t>ncfunycungyincftnuftnytadwanzwnrs nwrswsfsbxwx</t>
+  </si>
+  <si>
+    <t>Os bicho-preguiça, além de lentos, são muito ignorantes. Ademais, às vezes, confundem seus próprios braços com galhos e caem da árvore que estão empoleirados.</t>
+  </si>
+  <si>
+    <t>lentos</t>
+  </si>
+  <si>
+    <t>ignorantes</t>
+  </si>
+  <si>
+    <t>snsexghdtxvtxljhoihnploihpoi;hnapxoiduwhzxpiowdhpwo;aidhowaizhdzpnoxiwahdpoizxhwpdoixhwpodhxpwohdxponhwdxnpohwzozdhxpozwhdoz</t>
+  </si>
+  <si>
+    <t>Quando as libélulas aparecem, mostram seu corpo em formato de coração.</t>
+  </si>
+  <si>
+    <t>formato</t>
+  </si>
+  <si>
+    <t>waldhpwaougiuegfpiugwevlifuhgwlineaundlwhlidhglwivuhlnxhiouhwluihcliwahc;dias</t>
+  </si>
+  <si>
+    <t>Os bebês elefantes usam suas próprias trombas como ‘chupeta’ para se acalmarem.</t>
+  </si>
+  <si>
+    <t>bebês</t>
+  </si>
+  <si>
+    <t>elefantes</t>
+  </si>
+  <si>
+    <t>ckjblszdkjbc;; ohwlaiugcliugzxlcnlshzlviugdliuvhndhvilduhlvkdhlkvhlisahvlahlkvnlkdxzkjvhizds</t>
+  </si>
+  <si>
+    <t>A cor rosada dos flamingos, afinal, é devido à sua alimentação. Isso porque, na verdade, eles são brancos.</t>
+  </si>
+  <si>
+    <t>rosada</t>
+  </si>
+  <si>
+    <t>alimentação</t>
+  </si>
+  <si>
+    <t>fhpoiehjfopijaepoifhpowuhrvpiubpeuivhuxerpoviespoivjpsoejcpodihxlvohpeoaihfpoisehgpvoihpdoivhposihvpoihsjpdoivjpod</t>
+  </si>
+  <si>
+    <t>O ‘axolote’ é um animal bastante curioso. Por exemplo, ele pode regenerar suas extremidades.</t>
+  </si>
+  <si>
+    <t>regenerar</t>
+  </si>
+  <si>
+    <t>extremidades</t>
+  </si>
+  <si>
+    <t>oisehpvoihpdoivh;oxdijv;oisjd;vjxpvijoxidhvoiusghdnpoihvpozisehfzp iohespois hfpoizs hpois hyzpoisenpoihfoi hiou hfopuiehsfopizhesfnsv</t>
+  </si>
+  <si>
+    <t>Os tamanduás não tem dentes. Certamente, uma das curiosidades do mundo que você nem imaginava.</t>
+  </si>
+  <si>
+    <t>tamanduás</t>
+  </si>
+  <si>
+    <t>dentes</t>
+  </si>
+  <si>
+    <t>sdihfpfioauencpiunslicnadinviadnviondbovibdiv divhxdihviolxdnvliboiudboisbnvoibochblxbv</t>
+  </si>
+  <si>
+    <t>Existem raças de morcegos que se alimentam de sangue.</t>
+  </si>
+  <si>
+    <t>morcegos</t>
+  </si>
+  <si>
+    <t>clsdjhvpisdnv;onx;klvnlxkcnvlkjxnlkjnbvlkjdnxlvjknclkxnvlkxnlkjxcnvlkjnxlkcvn</t>
+  </si>
+  <si>
+    <t>Os gatos não conseguem sentir sabores doce.</t>
+  </si>
+  <si>
+    <t>uvliygiyglifluyfjytdgrsrtwsajytdfkuyfouygipuobpjbnpibpiu</t>
+  </si>
+  <si>
+    <t>A cada minuto, cerca de 72 horas de conteúdo são enviadas ao site de vídeos Youtube.</t>
+  </si>
+  <si>
+    <t>conteúdo</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>lfliudliutdkygtlkuytflkyuvfluivlglvlblkgvlbfgkvlkcgliutvldhbrytrcuyekurvoyu okuydrjcurdviluvtvludvi</t>
+  </si>
+  <si>
+    <t>Estima-se que, a cada ano, o monte Everest cresça 4 milímetros.</t>
+  </si>
+  <si>
+    <t>Everest</t>
+  </si>
+  <si>
+    <t>cresça</t>
+  </si>
+  <si>
+    <t>sbgzsgzsngszrdhmzhsetmtmjxtfhxtdmxtdjmxdtjxtfhmdgfmxjyfjmxmtjxtxmfmx</t>
+  </si>
+  <si>
+    <t>A barragem da maior usina hidrelétrica do mundo, a Usina das Três Gargantas, localizada na China, prolongaria a duração do dia em 0,66 microssegundos se operasse em sua capacidade máxima. Isso ocorreria em virtude da enorme massa de água que ela comporta.</t>
+  </si>
+  <si>
+    <t>hidrelétrica</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>hmxdmfyxtfumxtdfmxtfxmtmdjxftjtdhbdrxndrxdtufynxixtfnftgxfngnzdfngndzgdzfgnzdngzsbwzwzwfwaqqaqaqqazqvrzwfwaf,zpwkmfpozwamzfpowkamzfpozpokawpomwpozmwapomwpozkapowmad</t>
+  </si>
+  <si>
+    <t>Durante o fenômeno Superlua, calcula-se que o diâmetro lunar possa aumentar em até 14%.</t>
+  </si>
+  <si>
+    <t>Superlua</t>
+  </si>
+  <si>
+    <t>diâmetro</t>
+  </si>
+  <si>
+    <t>acohawpfbvpbeauhfvpoeaihfpboezisbeSnzsrhntdjunt</t>
+  </si>
+  <si>
+    <t>Há uma lâmpada que permanece ligada continuamente há mais de 113 anos na cidade de Livermore, na Califórnia.</t>
+  </si>
+  <si>
+    <t>lâmpada</t>
+  </si>
+  <si>
+    <t>ligada</t>
+  </si>
+  <si>
+    <t>hndrtdnxdrhsrgnpbzseoiufnopicuzeshfpvisehgpiveshgpoizevshjgpose</t>
+  </si>
+  <si>
+    <t>O cérebro humano é formado por, aproximadamente, 75% de água.</t>
+  </si>
+  <si>
+    <t>fcsoiehfpvoiehpfuhesoniuxghopiesuhgpoesbihgpiboushgionspgnpvoesnpvozshvgs</t>
+  </si>
+  <si>
+    <t>O cachorro-quente é uma invenção alemã do século XV.</t>
+  </si>
+  <si>
+    <t>quente</t>
+  </si>
+  <si>
+    <t>zaebpvauyfvopezleaosfinpvzaiuhfpeizshgoznivsuehgvoifuesnoiguzvespnuhfpezivuhvlbiewknihosv</t>
+  </si>
+  <si>
+    <t>Alguns animais, como os cangurus, não param de crescer mesmo atingindo a idade adulta.</t>
+  </si>
+  <si>
+    <t>crescer</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>evfzhesofvhzenpfvihzpeshgnpvuesgpoihespogensughpeshncpepovpoesnpvoeshvgozehpsgzs</t>
+  </si>
+  <si>
+    <t>A maioria das vacas não consegue descer escadas.</t>
+  </si>
+  <si>
+    <t>escadas</t>
+  </si>
+  <si>
+    <t>zceofiyvpezufygpvzeshfgpenspicfnpzaeohfcpozehilvueosizfhveszf</t>
+  </si>
+  <si>
+    <t>Em média, um adulto respira 550 litros de oxigênio puro diariamente.</t>
+  </si>
+  <si>
+    <t>respira</t>
+  </si>
+  <si>
+    <t>litros</t>
+  </si>
+  <si>
+    <t>sfuhzesoiucnoiudhpzwaiuzhdbfpvawoefhbpoeshfbposhfbpbieosucfoieshbfpsehfpoevshfz</t>
+  </si>
+  <si>
+    <t>Estima-se que 4% da população mundial seja canhota.</t>
+  </si>
+  <si>
+    <t>população</t>
+  </si>
+  <si>
+    <t>canhota</t>
+  </si>
+  <si>
+    <t>sezvpypbfyeosuhfgopfhoehpqjhfpoihvpofihzesbpoibfhpzoesvnpboiehsnvpoisepgoivznespogvhnpzoisehgz</t>
+  </si>
+  <si>
+    <t>A maior palavra da língua portuguesa refere-se a uma doença causada pela respiração de cinzas vulcânicas: pneumoultramicroscopicossilicovulcanoconiótico.</t>
+  </si>
+  <si>
+    <t>cinzas</t>
+  </si>
+  <si>
+    <t>vulcânicas</t>
+  </si>
+  <si>
+    <t>segfozieshzfpnzeihpoihpihpoihpoiwdhpwoihfpoehnfpoieahfpoiehspfoihespofhespoifhpoehfpoiehf[oqejhpoifhqpiofhpoidsahfpoiahspofighepoiahfpioawehfpoiaehfpoihasofnavz</t>
+  </si>
+  <si>
+    <t>O Brasil é o país que possui a maior comunidade japonesa fora do Japão. Só em São Paulo, moram mais de 600 mil japoneses.</t>
+  </si>
+  <si>
+    <t>comunidade</t>
+  </si>
+  <si>
+    <t>japonesa</t>
+  </si>
+  <si>
+    <t>dopifh[aeoifhj[maeojf[aifn[;amf[opaijf[peaonjfpoeaijnfpeiohfnpoaeihfopaenhfpoemhfpioehnfpoeshfnponehpaofeaw</t>
+  </si>
+  <si>
+    <t>O calendário da Etiópia é sete anos atrasado em relação aos demais países do ocidente.</t>
+  </si>
+  <si>
+    <t>calendário</t>
+  </si>
+  <si>
+    <t>Etiópia</t>
+  </si>
+  <si>
+    <t>fohaepfonaei[fhaw[iofhpqiofhponinsfnpozdihfg;nosng posejnpgonuseoignpoieshmgopise</t>
+  </si>
+  <si>
+    <t>A avenida mais larga do mundo, com 14 faixas diferentes, fica na Argentina.</t>
+  </si>
+  <si>
+    <t>avenida</t>
+  </si>
+  <si>
+    <t>larga</t>
+  </si>
+  <si>
+    <t>opsehfposeihfpmoized[ovpnpesohvposeihmvpuhspoevhpoizhvmposehpvoihsiovhmiopshvpmimhseodhvpoisdv</t>
+  </si>
+  <si>
+    <t>Mais de 10% de toda a biodiversidade do mundo é encontrada no continente australiano.</t>
+  </si>
+  <si>
+    <t>biodiversidade</t>
+  </si>
+  <si>
+    <t>australiano</t>
+  </si>
+  <si>
+    <t>zaqzplzpokmzpoqzmoiqzjnaoizniaubuyvuytvytrctreqxztrcqaytzviuqhnzoiqmzoianziuhbquyzv</t>
+  </si>
+  <si>
+    <t>A Rússia é o maior país do mundo, ocupando cerca de 10% de toda a terra do planeta.</t>
+  </si>
+  <si>
+    <t>maior</t>
+  </si>
+  <si>
+    <t>pzoinapzibqzvyqdczytquvzoiqanzpokqamzoiabqzuygavztrdxareszxaytzvbaiozoiazbiuazvuyaczua</t>
+  </si>
+  <si>
+    <t>Na Holanda, estima-se que o número de bicicletas ultrapasse três vezes o número de veículos.</t>
+  </si>
+  <si>
+    <t>bicicletas</t>
+  </si>
+  <si>
+    <t>veículos</t>
+  </si>
+  <si>
+    <t>aqopzipiqbziuqsvytxwvduxydbciofenvoigrmboirgnbiuhebugcuygdwvcytwcxytcxytwvxeuwocnpewz</t>
+  </si>
+  <si>
+    <t>O menor país do mundo é o Vaticano, com cerca de 800 habitantes oficiais.</t>
+  </si>
+  <si>
+    <t>Vaticano</t>
+  </si>
+  <si>
+    <t>qpoxnpicbirsvcuoaecbpoencoiwrbctvitrvoyirwciuencoiuaebcoibepciubepiucbeaipcbpeiubc</t>
+  </si>
+  <si>
+    <t>O Sol converte cerca de 600 milhões de toneladas de hidrogênio em hélio a cada segundo em virtude do processo de fusão nuclear.</t>
+  </si>
+  <si>
+    <t>toneladas</t>
+  </si>
+  <si>
+    <t>hidrogênio</t>
+  </si>
+  <si>
+    <t>xopwbcpawohcpuahcouybrityvtrivtrvitrsvcoeabcoiaehcpiuh doiuahsoiuhEOIvsoiugvoiwehvpoigwOVBSIODHVBOIBSVIOBDOIBVOIBWOIV</t>
+  </si>
+  <si>
+    <t>Um volume do tamanho da cabeça de um alfinete feito do material de uma estrela de nêutrons teria uma massa de 1 milhão de toneladas.</t>
+  </si>
+  <si>
+    <t>nêutrons</t>
+  </si>
+  <si>
+    <t>oinrpiughzsdpgihsrpogihprhgpoisygpoivshgpoieshgpbioESgbpoeszhgpozesghoizeshgpoizeshbgpozshbgpozsehgpiozesgnpoiehspogizes</t>
+  </si>
+  <si>
+    <t>A parte mais profunda do oceano chega a 11 mil metros.</t>
+  </si>
+  <si>
+    <t>profunda</t>
+  </si>
+  <si>
+    <t>oceano</t>
+  </si>
+  <si>
+    <t>jnxpiajbcpiueabvpoe;jvnpadnpioaenclawnclkabclkjabwclkBSLCnlna;jkzcblzkbc</t>
+  </si>
+  <si>
+    <t>O esqueleto humano é formado por 206 ossos, no entanto, os bebês nascem com cerca de 270 ossos, que se fundem em ossos maiores.</t>
+  </si>
+  <si>
+    <t>esqueleto</t>
+  </si>
+  <si>
+    <t>asoichpiHScpozdhpconeoifheoshvposehpf pgzypsorigyzproighozirsughpoirsghporszigypzsorighpoirzhg;ozrghlzrhgozrshzgpozsrzghzrc</t>
+  </si>
+  <si>
+    <t>A Terra orbita o Sol a uma velocidade de, aproximadamente, 107 mil km/h.</t>
+  </si>
+  <si>
+    <t>orbita</t>
+  </si>
+  <si>
+    <t>velocidade</t>
+  </si>
+  <si>
+    <t>owncpiodhvoihopvihaeiugvpiuehfpiuehoihpnovnhpiovhespvhpondzhpvodhzpoifhpoxdnhvlodxhvoxdhvpodxhvpodhv</t>
+  </si>
+  <si>
+    <t>O corpo humano tem mais de 96 mil km de vasos sanguíneos.</t>
+  </si>
+  <si>
+    <t>humano</t>
+  </si>
+  <si>
+    <t>sanguíneos</t>
+  </si>
+  <si>
+    <t>acpiuzpvylhoneagvoiehpnisughfnolehnfoiuzshflnzshflzshlifhzesfhzlsfhkziesfz</t>
+  </si>
+  <si>
+    <t>Estima-se que o Universo conte com mais de 10 bilhões de galáxias.</t>
+  </si>
+  <si>
+    <t>Universo</t>
+  </si>
+  <si>
+    <t>oiugcosegvhphzogfwopahfpneuglsezhlvizughxeluigvzlsglvvzsglkgvlizhdfliughzlsehflzsef</t>
+  </si>
+  <si>
+    <t>A luz do Sol leva cerca de 8 minutos e 20 segundos para chegar à Terra.</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>isufgoislezhfpzoiehsofighowizahfpzeohfgpzoehsflehszlfhslfhldhfjkzsdhpfzshelfizzheslf</t>
+  </si>
+  <si>
+    <t>O dia tem, aproximadamente, 23 horas e 56 minutos, não 24 horas. Por isso, a cada quatro anos, adicionamos um dia ao mês de fevereiro. Esses anos são chamados de bissextos.</t>
+  </si>
+  <si>
+    <t>bissextos</t>
+  </si>
+  <si>
+    <t>poesihfpziushgpoizhwbofpizbyespoifhbvzpoidhfpiouzshdfoihjdpojuzifhdliuahfopß˙˜fnoizhvebfoizhefoihzvlihlhvlshfoiuHDowuihfoiuzhofhopivhoishvopishfipovushfpiou</t>
+  </si>
+  <si>
+    <t>O recorde de voo de uma galinha é de 13 segundos.</t>
+  </si>
+  <si>
+    <t>recorde</t>
+  </si>
+  <si>
+    <t>liugodiLUAghflieuhfoiluzsehofiluhzseliufheszli zsevzsegzseg</t>
+  </si>
+  <si>
+    <t>Os mosquitos são os animais mais letais do mundo, causando mais mortes humanas do que todas as guerras da história. Esses seres vivos matam cerca de 725 mil humanos anualmente.</t>
+  </si>
+  <si>
+    <t>mosquitos</t>
+  </si>
+  <si>
+    <t>letais</t>
+  </si>
+  <si>
+    <t>gzsefzbzesfbezsfgbezsgnrysetuf6tmiy8omgupupu,iudrtmysazwnrswtxdrycjjnhrngdrhdtrntxz</t>
+  </si>
+  <si>
+    <t>Uma pulga pode saltar até 350 vezes sua altura.</t>
+  </si>
+  <si>
+    <t>pulga</t>
+  </si>
+  <si>
+    <t>saltar</t>
+  </si>
+  <si>
+    <t>lifhpaeifpeihfiuegfoizehpfoihpnodihflshDlcindlvds</t>
+  </si>
+  <si>
+    <t>As formigas são capazes de levantar até 50 vezes seu próprio peso.</t>
+  </si>
+  <si>
+    <t>formigas</t>
+  </si>
+  <si>
+    <t>c;zsdhpvoihzsdpvoihpeiuhfpizesnpfoihpbf;ohsz;ifnhlzdmovzodijv;boibhsd;vnzd;mozvjndsvz</t>
+  </si>
+  <si>
+    <t>Todos os mamíferos são capazes de saltar, menos os elefantes.</t>
+  </si>
+  <si>
+    <t>iudpvyxordgrdgnxdrngbdr</t>
+  </si>
+  <si>
+    <t>Girafas não têm cordas vocais.</t>
+  </si>
+  <si>
+    <t>Girafas</t>
+  </si>
+  <si>
+    <t>vocais</t>
+  </si>
+  <si>
+    <t>hnxdrhrdxnhrdgnrdgndxnxgdrgnxrd</t>
+  </si>
+  <si>
+    <t>A língua de uma baleia-azul pode pesar até 3,6 toneladas, o equivalente ao peso de um elefante médio.</t>
+  </si>
+  <si>
+    <t>baleia</t>
+  </si>
+  <si>
+    <t>xdrgrndgxgnxdxtrxhnxrdhndxrhxbdbgrdbxdrnhdx</t>
+  </si>
+  <si>
+    <t>As borboletas têm cerca de 12 mil olhos.</t>
+  </si>
+  <si>
+    <t>borboletas</t>
+  </si>
+  <si>
+    <t>hnxdrnxhxrdnhxdrnhxdrdhnxdrrnyndtruxrdnhtrjnx</t>
+  </si>
+  <si>
+    <t>Os vertebrados mais longevos do mundo são os tubarões da Groenlândia, que podem viver cerca de 400 anos.</t>
+  </si>
+  <si>
+    <t>vertebrados</t>
+  </si>
+  <si>
+    <t>longevos</t>
+  </si>
+  <si>
+    <t>nndrxjtxrnjtntx xtdxhntdxxtduxntunxtdnpxtdun</t>
+  </si>
+  <si>
+    <t>Existem algumas árvores vivas espalhadas pelo mundo que têm, pelo menos, 5000 anos de idade.</t>
+  </si>
+  <si>
+    <t>árvores</t>
+  </si>
+  <si>
+    <t>mundo</t>
+  </si>
+  <si>
+    <t>dhtxndtxtdhntjt ununtfuxntfntdjnoijnzpojqnzpoqnzpoznpiojanzoijqsnxpocnpfovinperotvnpiervxn</t>
+  </si>
+  <si>
+    <t>Os ursos-polares são, praticamente, invisíveis pelas câmeras de calor em virtude da eficiente camada de gordura isolante que os protege do frio.</t>
+  </si>
+  <si>
+    <t>câmeras</t>
+  </si>
+  <si>
+    <t>oihpgoisrhpgfoirsupgo;ishrpoigufhosirzuhfgoius oiufhzoeiusfhoisehfoiuhbliawzfhoiuzwbhofiuzehogieshogihesoiuh oieuhgoisehgoizeshgoizuhsepgiufhzsozig</t>
+  </si>
+  <si>
+    <t>O nome oficial do Brasil é República Federativa do Brasil.</t>
+  </si>
+  <si>
+    <t>República</t>
+  </si>
+  <si>
+    <t>Federativa</t>
+  </si>
+  <si>
+    <t>loieshgoisuyronghoiuhfoiuxghoruighiushgoildxngljfnlxhvlxfdh;vh;fdglknf</t>
+  </si>
+  <si>
+    <t>A palavra “brasil” significa “vermelho como brasa”.</t>
+  </si>
+  <si>
+    <t>brasil</t>
+  </si>
+  <si>
+    <t>brasa</t>
+  </si>
+  <si>
+    <t>knojnoibiuxgvqtfwcxytrcsayuavxiaecnboienvproshvikrusgfkrsbflkjrsnblfkjbnzlksjfblzsrv</t>
+  </si>
+  <si>
+    <t>O Brasil é o quinto maior país do mundo.</t>
+  </si>
+  <si>
+    <t>quinto</t>
+  </si>
+  <si>
+    <t>oiszuehfoieszhlvhzlfhzdkjhzvsljkdvhfzlksdfvef</t>
+  </si>
+  <si>
+    <t>O Brasil é o maior produtor de café do mundo.</t>
+  </si>
+  <si>
+    <t>produtor</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>slziefhovizesbhivzhflkzdhvlkxvhfkldshflxhldkxjhflkxhflkzshflkzeshflvbesfe</t>
+  </si>
+  <si>
+    <t>O Brasil é também o país que mais desmata a natureza em todo o mundo.</t>
+  </si>
+  <si>
+    <t>desmata</t>
+  </si>
+  <si>
+    <t>natureza</t>
+  </si>
+  <si>
+    <t>szeufzhozhfnvszhefopzeshvzhseflheslfkcnlshfcneshfovuznozezhofninevogizfvhxogrhvgoirshvgonizsghouvhgvosirghz</t>
+  </si>
+  <si>
+    <t>Tocantins é o estado mais novo do Brasil, fundado em 1988.</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>novo</t>
+  </si>
+  <si>
+    <t>fsziulfhgligniueshbfoiuvzhsvuthzlsglvshzncohehvzblzeshlcnzbelkfvhleskhvlkeshvlzs</t>
+  </si>
+  <si>
+    <t>Toda moeda circulante e oficial do Brasil é produzida na Casa da Moeda, no Rio de Janeiro.</t>
+  </si>
+  <si>
+    <t>circulante</t>
+  </si>
+  <si>
+    <t>eozfiuysepofyesbogihuzsoiguzbpzeosiuhgvpozieusgcnoiehgtopvihseoighvosildhvgl</t>
+  </si>
+  <si>
+    <t>Das 30 cidades mais violentas do mundo, 12 estão localizadas no Brasil.</t>
+  </si>
+  <si>
+    <t>cidades</t>
+  </si>
+  <si>
+    <t>violentas</t>
+  </si>
+  <si>
+    <t>voefuzyovesuygfoirysbgovynoseiuyzfoizuceghszonfzesouichseofhbvoisebozsiuehfoiuzsvghnsizghois</t>
+  </si>
+  <si>
+    <t>O Brasil tem a maior biodiversidade do mundo graças à Floresta Amazônica.</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>vsefozsiyfovzuehfpnha09uhwoevhjpoeijgpnxgnio;bruoxduinviuhrgonhdxlihvlidhxvxhlgvhdo</t>
   </si>
 </sst>
 </file>
@@ -980,7 +2597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -990,6 +2607,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <b val="1"/>
@@ -1012,7 +2634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1040,10 +2662,70 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1071,21 +2753,45 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2165,20 +3871,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="90.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="110.352" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="4" width="24.5859" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" ht="30.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2192,1152 +3897,3184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="30.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" ht="30.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" ht="30.25" customHeight="1">
+      <c r="A4" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="D4" t="s" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" ht="30.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" ht="30.25" customHeight="1">
+      <c r="A6" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="4">
+      <c r="D6" t="s" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" ht="30.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="D7" t="s" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" ht="30.25" customHeight="1">
+      <c r="A8" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="D8" t="s" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" ht="30.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="D9" t="s" s="4">
+      <c r="D9" t="s" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" ht="30.25" customHeight="1">
+      <c r="A10" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="D10" t="s" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" ht="30.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="8">
         <v>42</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" ht="30.25" customHeight="1">
+      <c r="A12" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" ht="30.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="8">
         <v>50</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" ht="30.25" customHeight="1">
+      <c r="A14" t="s" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="4">
+      <c r="B14" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="C14" t="s" s="8">
         <v>53</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="D14" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="D14" t="s" s="4">
+    </row>
+    <row r="15" ht="30.25" customHeight="1">
+      <c r="A15" t="s" s="6">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="4">
+      <c r="B15" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="C15" t="s" s="8">
         <v>57</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="D15" t="s" s="8">
         <v>58</v>
       </c>
-      <c r="D15" t="s" s="4">
+    </row>
+    <row r="16" ht="30.25" customHeight="1">
+      <c r="A16" t="s" s="6">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="4">
+      <c r="B16" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="C16" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" ht="30.25" customHeight="1">
+      <c r="A17" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="D16" t="s" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="4">
+      <c r="B17" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="C17" t="s" s="8">
         <v>64</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="D17" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="D17" t="s" s="4">
+    </row>
+    <row r="18" ht="30.25" customHeight="1">
+      <c r="A18" t="s" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="4">
+      <c r="B18" t="s" s="7">
         <v>67</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="C18" t="s" s="8">
         <v>68</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="D18" t="s" s="8">
         <v>69</v>
       </c>
-      <c r="D18" t="s" s="4">
+    </row>
+    <row r="19" ht="30.25" customHeight="1">
+      <c r="A19" t="s" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="4">
+      <c r="B19" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="C19" t="s" s="8">
         <v>72</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="D19" t="s" s="8">
         <v>73</v>
       </c>
-      <c r="D19" t="s" s="4">
+    </row>
+    <row r="20" ht="30.25" customHeight="1">
+      <c r="A20" t="s" s="6">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="4">
+      <c r="B20" t="s" s="7">
         <v>75</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="C20" t="s" s="8">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="D20" t="s" s="8">
         <v>77</v>
       </c>
-      <c r="D20" t="s" s="4">
+    </row>
+    <row r="21" ht="30.25" customHeight="1">
+      <c r="A21" t="s" s="6">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="4">
+      <c r="B21" t="s" s="7">
         <v>79</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="C21" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="D21" t="s" s="8">
         <v>81</v>
       </c>
-      <c r="D21" t="s" s="4">
+    </row>
+    <row r="22" ht="30.25" customHeight="1">
+      <c r="A22" t="s" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="4">
+      <c r="B22" t="s" s="7">
         <v>83</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="C22" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="D22" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="D22" t="s" s="4">
+    </row>
+    <row r="23" ht="30.25" customHeight="1">
+      <c r="A23" t="s" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="4">
+      <c r="B23" t="s" s="7">
         <v>87</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="C23" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="D23" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="D23" t="s" s="4">
+    </row>
+    <row r="24" ht="30.25" customHeight="1">
+      <c r="A24" t="s" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="4">
+      <c r="B24" t="s" s="7">
         <v>91</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="C24" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="D24" t="s" s="8">
         <v>93</v>
       </c>
-      <c r="D24" t="s" s="4">
+    </row>
+    <row r="25" ht="30.25" customHeight="1">
+      <c r="A25" t="s" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="4">
+      <c r="B25" t="s" s="7">
         <v>95</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="C25" t="s" s="8">
         <v>96</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="D25" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="D25" t="s" s="4">
+    </row>
+    <row r="26" ht="30.25" customHeight="1">
+      <c r="A26" t="s" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="4">
+      <c r="B26" t="s" s="7">
         <v>99</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="C26" t="s" s="8">
         <v>100</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="D26" t="s" s="8">
         <v>101</v>
       </c>
-      <c r="D26" t="s" s="4">
+    </row>
+    <row r="27" ht="30.25" customHeight="1">
+      <c r="A27" t="s" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="4">
+      <c r="B27" t="s" s="7">
         <v>103</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="C27" t="s" s="8">
         <v>104</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="D27" t="s" s="8">
         <v>105</v>
       </c>
-      <c r="D27" t="s" s="4">
+    </row>
+    <row r="28" ht="30.25" customHeight="1">
+      <c r="A28" t="s" s="6">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="4">
+      <c r="B28" t="s" s="7">
         <v>107</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="C28" t="s" s="8">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s" s="8">
         <v>108</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s" s="4">
+    </row>
+    <row r="29" ht="30.25" customHeight="1">
+      <c r="A29" t="s" s="6">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="4">
+      <c r="B29" t="s" s="7">
         <v>110</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="C29" t="s" s="8">
         <v>111</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="D29" t="s" s="8">
         <v>112</v>
       </c>
-      <c r="D29" t="s" s="4">
+    </row>
+    <row r="30" ht="30.25" customHeight="1">
+      <c r="A30" t="s" s="6">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="4">
+      <c r="B30" t="s" s="7">
         <v>114</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="C30" t="s" s="8">
         <v>115</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="D30" t="s" s="8">
         <v>116</v>
       </c>
-      <c r="D30" t="s" s="4">
+    </row>
+    <row r="31" ht="30.25" customHeight="1">
+      <c r="A31" t="s" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="4">
+      <c r="B31" t="s" s="7">
         <v>118</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="C31" t="s" s="8">
         <v>119</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="D31" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="D31" t="s" s="4">
+    </row>
+    <row r="32" ht="30.25" customHeight="1">
+      <c r="A32" t="s" s="6">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="4">
+      <c r="B32" t="s" s="7">
         <v>122</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="C32" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="D32" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="D32" t="s" s="4">
+    </row>
+    <row r="33" ht="30.25" customHeight="1">
+      <c r="A33" t="s" s="6">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="4">
+      <c r="B33" t="s" s="7">
         <v>126</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="C33" t="s" s="8">
         <v>127</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="D33" t="s" s="8">
         <v>128</v>
       </c>
-      <c r="D33" t="s" s="4">
+    </row>
+    <row r="34" ht="30.25" customHeight="1">
+      <c r="A34" t="s" s="6">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="4">
+      <c r="B34" t="s" s="7">
         <v>130</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="C34" t="s" s="8">
         <v>131</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="D34" t="s" s="8">
         <v>132</v>
       </c>
-      <c r="D34" t="s" s="4">
+    </row>
+    <row r="35" ht="30.25" customHeight="1">
+      <c r="A35" t="s" s="6">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="4">
+      <c r="B35" t="s" s="7">
         <v>134</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="C35" t="s" s="8">
         <v>135</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="D35" t="s" s="8">
         <v>136</v>
       </c>
-      <c r="D35" t="s" s="4">
+    </row>
+    <row r="36" ht="30.25" customHeight="1">
+      <c r="A36" t="s" s="6">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="4">
+      <c r="B36" t="s" s="7">
         <v>138</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="C36" t="s" s="8">
         <v>139</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="D36" t="s" s="8">
         <v>140</v>
       </c>
-      <c r="D36" t="s" s="4">
+    </row>
+    <row r="37" ht="30.25" customHeight="1">
+      <c r="A37" t="s" s="6">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="4">
+      <c r="B37" t="s" s="7">
         <v>142</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="C37" t="s" s="8">
         <v>143</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="D37" t="s" s="8">
         <v>144</v>
       </c>
-      <c r="D37" t="s" s="4">
+    </row>
+    <row r="38" ht="30.25" customHeight="1">
+      <c r="A38" t="s" s="6">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="4">
+      <c r="B38" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="C38" t="s" s="8">
         <v>147</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="D38" t="s" s="8">
         <v>148</v>
       </c>
-      <c r="D38" t="s" s="4">
+    </row>
+    <row r="39" ht="30.25" customHeight="1">
+      <c r="A39" t="s" s="6">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="4">
+      <c r="B39" t="s" s="7">
         <v>150</v>
       </c>
-      <c r="B39" t="s" s="4">
+      <c r="C39" t="s" s="8">
         <v>151</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="D39" t="s" s="8">
         <v>152</v>
       </c>
-      <c r="D39" t="s" s="4">
+    </row>
+    <row r="40" ht="30.25" customHeight="1">
+      <c r="A40" t="s" s="6">
         <v>153</v>
       </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="4">
+      <c r="B40" t="s" s="7">
         <v>154</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="C40" t="s" s="8">
         <v>155</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="D40" t="s" s="8">
         <v>156</v>
       </c>
-      <c r="D40" t="s" s="4">
+    </row>
+    <row r="41" ht="30.25" customHeight="1">
+      <c r="A41" t="s" s="6">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="4">
+      <c r="B41" t="s" s="7">
         <v>158</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="C41" t="s" s="8">
         <v>159</v>
       </c>
-      <c r="C41" t="s" s="4">
+      <c r="D41" t="s" s="8">
         <v>160</v>
       </c>
-      <c r="D41" t="s" s="4">
+    </row>
+    <row r="42" ht="30.25" customHeight="1">
+      <c r="A42" t="s" s="6">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="4">
+      <c r="B42" t="s" s="7">
         <v>162</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="C42" t="s" s="8">
         <v>163</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="D42" t="s" s="8">
         <v>164</v>
       </c>
-      <c r="D42" t="s" s="4">
+    </row>
+    <row r="43" ht="30.25" customHeight="1">
+      <c r="A43" t="s" s="6">
         <v>165</v>
       </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="4">
+      <c r="B43" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="C43" t="s" s="8">
         <v>167</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="D43" t="s" s="8">
         <v>168</v>
       </c>
-      <c r="D43" t="s" s="4">
+    </row>
+    <row r="44" ht="30.25" customHeight="1">
+      <c r="A44" t="s" s="6">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="4">
+      <c r="B44" t="s" s="7">
         <v>170</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="C44" t="s" s="8">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s" s="8">
         <v>171</v>
       </c>
-      <c r="C44" t="s" s="4">
+    </row>
+    <row r="45" ht="30.25" customHeight="1">
+      <c r="A45" t="s" s="6">
         <v>172</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="B45" t="s" s="7">
         <v>173</v>
       </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="4">
+      <c r="C45" t="s" s="8">
         <v>174</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="D45" t="s" s="8">
         <v>175</v>
       </c>
-      <c r="C45" t="s" s="4">
+    </row>
+    <row r="46" ht="30.25" customHeight="1">
+      <c r="A46" t="s" s="6">
         <v>176</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="B46" t="s" s="7">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="4">
+      <c r="C46" t="s" s="8">
         <v>178</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="D46" t="s" s="8">
         <v>179</v>
       </c>
-      <c r="C46" t="s" s="4">
+    </row>
+    <row r="47" ht="30.25" customHeight="1">
+      <c r="A47" t="s" s="6">
         <v>180</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="B47" t="s" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="4">
+      <c r="C47" t="s" s="8">
         <v>182</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="D47" t="s" s="8">
         <v>183</v>
       </c>
-      <c r="C47" t="s" s="4">
+    </row>
+    <row r="48" ht="30.25" customHeight="1">
+      <c r="A48" t="s" s="6">
         <v>184</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="B48" t="s" s="7">
         <v>185</v>
       </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="4">
+      <c r="C48" t="s" s="8">
         <v>186</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="D48" t="s" s="8">
         <v>187</v>
       </c>
-      <c r="C48" t="s" s="4">
+    </row>
+    <row r="49" ht="30.25" customHeight="1">
+      <c r="A49" t="s" s="6">
         <v>188</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="B49" t="s" s="7">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="4">
+      <c r="C49" t="s" s="8">
         <v>190</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="D49" t="s" s="8">
         <v>191</v>
       </c>
-      <c r="C49" t="s" s="4">
+    </row>
+    <row r="50" ht="30.25" customHeight="1">
+      <c r="A50" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="B50" t="s" s="7">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="4">
+      <c r="C50" t="s" s="8">
         <v>194</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="D50" t="s" s="8">
         <v>195</v>
       </c>
-      <c r="C50" t="s" s="4">
+    </row>
+    <row r="51" ht="30.25" customHeight="1">
+      <c r="A51" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="B51" t="s" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="4">
+      <c r="C51" t="s" s="8">
         <v>198</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="D51" t="s" s="8">
         <v>199</v>
       </c>
-      <c r="C51" t="s" s="4">
+    </row>
+    <row r="52" ht="30.25" customHeight="1">
+      <c r="A52" t="s" s="6">
         <v>200</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="B52" t="s" s="7">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s" s="8">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="4">
+      <c r="D52" t="s" s="8">
         <v>202</v>
       </c>
-      <c r="B52" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="C52" t="s" s="4">
+    </row>
+    <row r="53" ht="30.25" customHeight="1">
+      <c r="A53" t="s" s="6">
         <v>203</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="B53" t="s" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="4">
+      <c r="C53" t="s" s="8">
         <v>205</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="D53" t="s" s="8">
         <v>206</v>
       </c>
-      <c r="C53" t="s" s="4">
+    </row>
+    <row r="54" ht="30.25" customHeight="1">
+      <c r="A54" t="s" s="6">
         <v>207</v>
       </c>
-      <c r="D53" t="s" s="4">
+      <c r="B54" t="s" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="4">
+      <c r="C54" t="s" s="8">
         <v>209</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="D54" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="C54" t="s" s="4">
+    </row>
+    <row r="55" ht="30.25" customHeight="1">
+      <c r="A55" t="s" s="6">
         <v>211</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="B55" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s" s="8">
         <v>212</v>
       </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="4">
+      <c r="D55" t="s" s="8">
         <v>213</v>
       </c>
-      <c r="B55" t="s" s="4">
+    </row>
+    <row r="56" ht="30.25" customHeight="1">
+      <c r="A56" t="s" s="6">
         <v>214</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="B56" t="s" s="7">
         <v>215</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="C56" t="s" s="8">
         <v>216</v>
       </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="4">
+      <c r="D56" t="s" s="8">
         <v>217</v>
       </c>
-      <c r="B56" t="s" s="4">
+    </row>
+    <row r="57" ht="30.25" customHeight="1">
+      <c r="A57" t="s" s="6">
         <v>218</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="B57" t="s" s="7">
         <v>219</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="C57" t="s" s="8">
         <v>220</v>
       </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="4">
+      <c r="D57" t="s" s="8">
         <v>221</v>
       </c>
-      <c r="B57" t="s" s="4">
+    </row>
+    <row r="58" ht="30.25" customHeight="1">
+      <c r="A58" t="s" s="6">
         <v>222</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="B58" t="s" s="7">
         <v>223</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="C58" t="s" s="8">
         <v>224</v>
       </c>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="4">
+      <c r="D58" t="s" s="8">
         <v>225</v>
       </c>
-      <c r="B58" t="s" s="4">
+    </row>
+    <row r="59" ht="30.25" customHeight="1">
+      <c r="A59" t="s" s="6">
         <v>226</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="B59" t="s" s="7">
         <v>227</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="C59" t="s" s="8">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="4">
+      <c r="D59" t="s" s="8">
         <v>229</v>
       </c>
-      <c r="B59" t="s" s="4">
+    </row>
+    <row r="60" ht="30.25" customHeight="1">
+      <c r="A60" t="s" s="6">
         <v>230</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="B60" t="s" s="7">
         <v>231</v>
       </c>
-      <c r="D59" t="s" s="4">
+      <c r="C60" t="s" s="8">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="4">
+      <c r="D60" t="s" s="8">
         <v>233</v>
       </c>
-      <c r="B60" t="s" s="4">
+    </row>
+    <row r="61" ht="30.25" customHeight="1">
+      <c r="A61" t="s" s="6">
         <v>234</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="B61" t="s" s="7">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s" s="8">
         <v>235</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D61" t="s" s="8">
         <v>236</v>
       </c>
     </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="4">
+    <row r="62" ht="30.25" customHeight="1">
+      <c r="A62" t="s" s="6">
         <v>237</v>
       </c>
-      <c r="B61" t="s" s="4">
-        <v>234</v>
-      </c>
-      <c r="C61" t="s" s="4">
+      <c r="B62" t="s" s="7">
         <v>238</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="C62" t="s" s="8">
         <v>239</v>
       </c>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="4">
+      <c r="D62" t="s" s="8">
         <v>240</v>
       </c>
-      <c r="B62" t="s" s="4">
+    </row>
+    <row r="63" ht="30.25" customHeight="1">
+      <c r="A63" t="s" s="6">
         <v>241</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="B63" t="s" s="7">
         <v>242</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="C63" t="s" s="8">
         <v>243</v>
       </c>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="4">
+      <c r="D63" t="s" s="8">
         <v>244</v>
       </c>
-      <c r="B63" t="s" s="4">
+    </row>
+    <row r="64" ht="30.25" customHeight="1">
+      <c r="A64" t="s" s="6">
         <v>245</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="B64" t="s" s="7">
         <v>246</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="C64" t="s" s="8">
         <v>247</v>
       </c>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="4">
+      <c r="D64" t="s" s="8">
         <v>248</v>
       </c>
-      <c r="B64" t="s" s="4">
+    </row>
+    <row r="65" ht="30.25" customHeight="1">
+      <c r="A65" t="s" s="6">
         <v>249</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="B65" t="s" s="7">
         <v>250</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="C65" t="s" s="8">
         <v>251</v>
       </c>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="4">
+      <c r="D65" t="s" s="8">
         <v>252</v>
       </c>
-      <c r="B65" t="s" s="4">
+    </row>
+    <row r="66" ht="30.25" customHeight="1">
+      <c r="A66" t="s" s="6">
         <v>253</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="B66" t="s" s="7">
         <v>254</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="C66" t="s" s="8">
         <v>255</v>
       </c>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="4">
+      <c r="D66" t="s" s="8">
         <v>256</v>
       </c>
-      <c r="B66" t="s" s="4">
+    </row>
+    <row r="67" ht="30.25" customHeight="1">
+      <c r="A67" t="s" s="6">
         <v>257</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="B67" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s" s="8">
         <v>258</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D67" t="s" s="8">
         <v>259</v>
       </c>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="4">
+    <row r="68" ht="30.25" customHeight="1">
+      <c r="A68" t="s" s="6">
         <v>260</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B68" t="s" s="7">
         <v>261</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C68" t="s" s="8">
         <v>262</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D68" t="s" s="8">
         <v>263</v>
       </c>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="4">
+    <row r="69" ht="30.25" customHeight="1">
+      <c r="A69" t="s" s="6">
         <v>264</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B69" t="s" s="7">
         <v>265</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C69" t="s" s="8">
         <v>266</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D69" t="s" s="8">
         <v>267</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="4">
+    <row r="70" ht="30.25" customHeight="1">
+      <c r="A70" t="s" s="6">
         <v>268</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B70" t="s" s="7">
         <v>269</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C70" t="s" s="8">
         <v>270</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D70" t="s" s="8">
         <v>271</v>
       </c>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="4">
+    <row r="71" ht="30.25" customHeight="1">
+      <c r="A71" t="s" s="6">
         <v>272</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B71" t="s" s="7">
         <v>273</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C71" t="s" s="8">
         <v>274</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D71" t="s" s="8">
         <v>275</v>
       </c>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="4">
+    <row r="72" ht="30.25" customHeight="1">
+      <c r="A72" t="s" s="6">
         <v>276</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B72" t="s" s="7">
         <v>277</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C72" t="s" s="8">
         <v>278</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D72" t="s" s="8">
         <v>279</v>
       </c>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="4">
+    <row r="73" ht="30.25" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" ht="30.25" customHeight="1">
+      <c r="A74" t="s" s="6">
         <v>280</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B74" t="s" s="7">
+        <v>277</v>
+      </c>
+      <c r="C74" t="s" s="8">
         <v>281</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="D74" t="s" s="8">
         <v>282</v>
       </c>
-      <c r="D72" t="s" s="4">
+    </row>
+    <row r="75" ht="30.25" customHeight="1">
+      <c r="A75" t="s" s="6">
         <v>283</v>
       </c>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="4">
+      <c r="B75" t="s" s="7">
         <v>284</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="C75" t="s" s="8">
         <v>285</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="D75" t="s" s="8">
         <v>286</v>
       </c>
-      <c r="D73" t="s" s="4">
+    </row>
+    <row r="76" ht="30.25" customHeight="1">
+      <c r="A76" t="s" s="6">
         <v>287</v>
       </c>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="4">
+      <c r="B76" t="s" s="7">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s" s="8">
         <v>288</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="D76" t="s" s="8">
         <v>289</v>
       </c>
-      <c r="C74" t="s" s="4">
+    </row>
+    <row r="77" ht="30.25" customHeight="1">
+      <c r="A77" t="s" s="6">
         <v>290</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="B77" t="s" s="7">
         <v>291</v>
       </c>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="4">
+      <c r="C77" t="s" s="8">
         <v>292</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="D77" t="s" s="8">
         <v>293</v>
       </c>
-      <c r="C75" t="s" s="4">
+    </row>
+    <row r="78" ht="30.25" customHeight="1">
+      <c r="A78" t="s" s="6">
         <v>294</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="B78" t="s" s="7">
         <v>295</v>
       </c>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="4">
+      <c r="C78" t="s" s="8">
         <v>296</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="D78" t="s" s="8">
         <v>297</v>
       </c>
-      <c r="C76" t="s" s="4">
+    </row>
+    <row r="79" ht="30.25" customHeight="1">
+      <c r="A79" t="s" s="6">
         <v>298</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="B79" t="s" s="7">
         <v>299</v>
       </c>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="4">
+      <c r="C79" t="s" s="8">
         <v>300</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="D79" t="s" s="8">
         <v>301</v>
       </c>
-      <c r="C77" t="s" s="4">
+    </row>
+    <row r="80" ht="30.25" customHeight="1">
+      <c r="A80" t="s" s="6">
         <v>302</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="B80" t="s" s="7">
         <v>303</v>
       </c>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="4">
+      <c r="C80" t="s" s="8">
         <v>304</v>
       </c>
-      <c r="B78" t="s" s="4">
-        <v>301</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>302</v>
-      </c>
-      <c r="D78" t="s" s="4">
+      <c r="D80" t="s" s="8">
         <v>305</v>
       </c>
     </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="4">
+    <row r="81" ht="30.25" customHeight="1">
+      <c r="A81" t="s" s="6">
         <v>306</v>
       </c>
-      <c r="B79" t="s" s="4">
-        <v>301</v>
-      </c>
-      <c r="C79" t="s" s="4">
-        <v>302</v>
-      </c>
-      <c r="D79" t="s" s="4">
+      <c r="B81" t="s" s="7">
         <v>307</v>
       </c>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="4">
+      <c r="C81" t="s" s="8">
         <v>308</v>
       </c>
-      <c r="B80" t="s" s="4">
-        <v>301</v>
-      </c>
-      <c r="C80" t="s" s="4">
+      <c r="D81" t="s" s="8">
         <v>309</v>
       </c>
-      <c r="D80" t="s" s="4">
+    </row>
+    <row r="82" ht="30.25" customHeight="1">
+      <c r="A82" t="s" s="6">
         <v>310</v>
       </c>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="4">
+      <c r="B82" t="s" s="7">
         <v>311</v>
       </c>
-      <c r="B81" t="s" s="4">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>309</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="C82" t="s" s="8">
         <v>312</v>
       </c>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="4">
+      <c r="D82" t="s" s="8">
         <v>313</v>
       </c>
-      <c r="B82" t="s" s="4">
+    </row>
+    <row r="83" ht="30.25" customHeight="1">
+      <c r="A83" t="s" s="6">
         <v>314</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="B83" t="s" s="7">
         <v>315</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="C83" t="s" s="8">
         <v>316</v>
       </c>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="4">
+      <c r="D83" t="s" s="8">
         <v>317</v>
       </c>
-      <c r="B83" t="s" s="4">
-        <v>314</v>
-      </c>
-      <c r="C83" t="s" s="4">
+    </row>
+    <row r="84" ht="30.25" customHeight="1">
+      <c r="A84" t="s" s="6">
         <v>318</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="B84" t="s" s="7">
         <v>319</v>
+      </c>
+      <c r="C84" t="s" s="8">
+        <v>320</v>
+      </c>
+      <c r="D84" t="s" s="8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" ht="30.25" customHeight="1">
+      <c r="A85" t="s" s="6">
+        <v>322</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>323</v>
+      </c>
+      <c r="C85" t="s" s="8">
+        <v>324</v>
+      </c>
+      <c r="D85" t="s" s="8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" ht="30.25" customHeight="1">
+      <c r="A86" t="s" s="6">
+        <v>326</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s" s="8">
+        <v>327</v>
+      </c>
+      <c r="D86" t="s" s="8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" ht="30.25" customHeight="1">
+      <c r="A87" t="s" s="6">
+        <v>329</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s" s="8">
+        <v>331</v>
+      </c>
+      <c r="D87" t="s" s="8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" ht="30.25" customHeight="1">
+      <c r="A88" t="s" s="6">
+        <v>333</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>334</v>
+      </c>
+      <c r="C88" t="s" s="8">
+        <v>335</v>
+      </c>
+      <c r="D88" t="s" s="8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" ht="30.25" customHeight="1">
+      <c r="A89" t="s" s="6">
+        <v>337</v>
+      </c>
+      <c r="B89" t="s" s="7">
+        <v>338</v>
+      </c>
+      <c r="C89" t="s" s="8">
+        <v>339</v>
+      </c>
+      <c r="D89" t="s" s="8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" ht="30.25" customHeight="1">
+      <c r="A90" t="s" s="6">
+        <v>341</v>
+      </c>
+      <c r="B90" t="s" s="7">
+        <v>342</v>
+      </c>
+      <c r="C90" t="s" s="8">
+        <v>343</v>
+      </c>
+      <c r="D90" t="s" s="8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" ht="30.25" customHeight="1">
+      <c r="A91" t="s" s="6">
+        <v>345</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>346</v>
+      </c>
+      <c r="C91" t="s" s="8">
+        <v>347</v>
+      </c>
+      <c r="D91" t="s" s="8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" ht="30.25" customHeight="1">
+      <c r="A92" t="s" s="6">
+        <v>349</v>
+      </c>
+      <c r="B92" t="s" s="7">
+        <v>350</v>
+      </c>
+      <c r="C92" t="s" s="8">
+        <v>351</v>
+      </c>
+      <c r="D92" t="s" s="8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" ht="30.25" customHeight="1">
+      <c r="A93" t="s" s="6">
+        <v>353</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>351</v>
+      </c>
+      <c r="C93" t="s" s="8">
+        <v>354</v>
+      </c>
+      <c r="D93" t="s" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" ht="30.25" customHeight="1">
+      <c r="A94" t="s" s="6">
+        <v>356</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>357</v>
+      </c>
+      <c r="C94" t="s" s="8">
+        <v>358</v>
+      </c>
+      <c r="D94" t="s" s="8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" ht="30.25" customHeight="1">
+      <c r="A95" t="s" s="6">
+        <v>360</v>
+      </c>
+      <c r="B95" t="s" s="7">
+        <v>361</v>
+      </c>
+      <c r="C95" t="s" s="8">
+        <v>362</v>
+      </c>
+      <c r="D95" t="s" s="8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" ht="30.25" customHeight="1">
+      <c r="A96" t="s" s="6">
+        <v>364</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>365</v>
+      </c>
+      <c r="C96" t="s" s="8">
+        <v>366</v>
+      </c>
+      <c r="D96" t="s" s="8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" ht="30.25" customHeight="1">
+      <c r="A97" t="s" s="6">
+        <v>368</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>369</v>
+      </c>
+      <c r="C97" t="s" s="8">
+        <v>370</v>
+      </c>
+      <c r="D97" t="s" s="8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" ht="30.25" customHeight="1">
+      <c r="A98" t="s" s="6">
+        <v>372</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>373</v>
+      </c>
+      <c r="C98" t="s" s="8">
+        <v>374</v>
+      </c>
+      <c r="D98" t="s" s="8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" ht="30.25" customHeight="1">
+      <c r="A99" t="s" s="6">
+        <v>376</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>377</v>
+      </c>
+      <c r="C99" t="s" s="8">
+        <v>378</v>
+      </c>
+      <c r="D99" t="s" s="8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" ht="30.25" customHeight="1">
+      <c r="A100" t="s" s="6">
+        <v>380</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>381</v>
+      </c>
+      <c r="C100" t="s" s="8">
+        <v>382</v>
+      </c>
+      <c r="D100" t="s" s="8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" ht="30.25" customHeight="1">
+      <c r="A101" t="s" s="6">
+        <v>384</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>385</v>
+      </c>
+      <c r="C101" t="s" s="8">
+        <v>386</v>
+      </c>
+      <c r="D101" t="s" s="8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" ht="30.25" customHeight="1">
+      <c r="A102" t="s" s="6">
+        <v>388</v>
+      </c>
+      <c r="B102" t="s" s="7">
+        <v>389</v>
+      </c>
+      <c r="C102" t="s" s="8">
+        <v>390</v>
+      </c>
+      <c r="D102" t="s" s="8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" ht="30.25" customHeight="1">
+      <c r="A103" t="s" s="6">
+        <v>392</v>
+      </c>
+      <c r="B103" t="s" s="7">
+        <v>393</v>
+      </c>
+      <c r="C103" t="s" s="8">
+        <v>394</v>
+      </c>
+      <c r="D103" t="s" s="8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" ht="30.25" customHeight="1">
+      <c r="A104" t="s" s="6">
+        <v>396</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>397</v>
+      </c>
+      <c r="C104" t="s" s="8">
+        <v>398</v>
+      </c>
+      <c r="D104" t="s" s="8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" ht="30.25" customHeight="1">
+      <c r="A105" t="s" s="6">
+        <v>400</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>401</v>
+      </c>
+      <c r="C105" t="s" s="8">
+        <v>402</v>
+      </c>
+      <c r="D105" t="s" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" ht="30.25" customHeight="1">
+      <c r="A106" t="s" s="6">
+        <v>404</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>405</v>
+      </c>
+      <c r="C106" t="s" s="8">
+        <v>406</v>
+      </c>
+      <c r="D106" t="s" s="8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" ht="30.25" customHeight="1">
+      <c r="A107" t="s" s="6">
+        <v>408</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>409</v>
+      </c>
+      <c r="C107" t="s" s="8">
+        <v>410</v>
+      </c>
+      <c r="D107" t="s" s="8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="108" ht="30.25" customHeight="1">
+      <c r="A108" t="s" s="6">
+        <v>412</v>
+      </c>
+      <c r="B108" t="s" s="7">
+        <v>413</v>
+      </c>
+      <c r="C108" t="s" s="8">
+        <v>414</v>
+      </c>
+      <c r="D108" t="s" s="8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" ht="30.25" customHeight="1">
+      <c r="A109" t="s" s="6">
+        <v>416</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>173</v>
+      </c>
+      <c r="C109" t="s" s="8">
+        <v>417</v>
+      </c>
+      <c r="D109" t="s" s="8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" ht="30.25" customHeight="1">
+      <c r="A110" t="s" s="6">
+        <v>419</v>
+      </c>
+      <c r="B110" t="s" s="7">
+        <v>420</v>
+      </c>
+      <c r="C110" t="s" s="8">
+        <v>421</v>
+      </c>
+      <c r="D110" t="s" s="8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="111" ht="30.25" customHeight="1">
+      <c r="A111" t="s" s="6">
+        <v>423</v>
+      </c>
+      <c r="B111" t="s" s="7">
+        <v>424</v>
+      </c>
+      <c r="C111" t="s" s="8">
+        <v>425</v>
+      </c>
+      <c r="D111" t="s" s="8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" ht="30.25" customHeight="1">
+      <c r="A112" t="s" s="6">
+        <v>427</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>428</v>
+      </c>
+      <c r="C112" t="s" s="8">
+        <v>429</v>
+      </c>
+      <c r="D112" t="s" s="8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" ht="30.25" customHeight="1">
+      <c r="A113" t="s" s="6">
+        <v>431</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>432</v>
+      </c>
+      <c r="C113" t="s" s="8">
+        <v>433</v>
+      </c>
+      <c r="D113" t="s" s="8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="114" ht="30.25" customHeight="1">
+      <c r="A114" t="s" s="6">
+        <v>435</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>436</v>
+      </c>
+      <c r="C114" t="s" s="8">
+        <v>437</v>
+      </c>
+      <c r="D114" t="s" s="8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="115" ht="30.25" customHeight="1">
+      <c r="A115" t="s" s="6">
+        <v>439</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>440</v>
+      </c>
+      <c r="C115" t="s" s="8">
+        <v>441</v>
+      </c>
+      <c r="D115" t="s" s="8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" ht="30.25" customHeight="1">
+      <c r="A116" t="s" s="6">
+        <v>443</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>444</v>
+      </c>
+      <c r="C116" t="s" s="8">
+        <v>445</v>
+      </c>
+      <c r="D116" t="s" s="8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" ht="30.25" customHeight="1">
+      <c r="A117" t="s" s="6">
+        <v>447</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>448</v>
+      </c>
+      <c r="C117" t="s" s="8">
+        <v>449</v>
+      </c>
+      <c r="D117" t="s" s="8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" ht="30.25" customHeight="1">
+      <c r="A118" t="s" s="6">
+        <v>451</v>
+      </c>
+      <c r="B118" t="s" s="7">
+        <v>452</v>
+      </c>
+      <c r="C118" t="s" s="8">
+        <v>453</v>
+      </c>
+      <c r="D118" t="s" s="8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" ht="30.25" customHeight="1">
+      <c r="A119" t="s" s="6">
+        <v>455</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>456</v>
+      </c>
+      <c r="C119" t="s" s="8">
+        <v>457</v>
+      </c>
+      <c r="D119" t="s" s="8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" ht="30.25" customHeight="1">
+      <c r="A120" t="s" s="6">
+        <v>459</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>460</v>
+      </c>
+      <c r="C120" t="s" s="8">
+        <v>461</v>
+      </c>
+      <c r="D120" t="s" s="8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="121" ht="30.25" customHeight="1">
+      <c r="A121" t="s" s="6">
+        <v>463</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>464</v>
+      </c>
+      <c r="C121" t="s" s="8">
+        <v>465</v>
+      </c>
+      <c r="D121" t="s" s="8">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" ht="30.25" customHeight="1">
+      <c r="A122" t="s" s="6">
+        <v>467</v>
+      </c>
+      <c r="B122" t="s" s="7">
+        <v>468</v>
+      </c>
+      <c r="C122" t="s" s="8">
+        <v>469</v>
+      </c>
+      <c r="D122" t="s" s="8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="123" ht="30.25" customHeight="1">
+      <c r="A123" t="s" s="6">
+        <v>471</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>472</v>
+      </c>
+      <c r="C123" t="s" s="8">
+        <v>473</v>
+      </c>
+      <c r="D123" t="s" s="8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" ht="30.25" customHeight="1">
+      <c r="A124" t="s" s="6">
+        <v>475</v>
+      </c>
+      <c r="B124" t="s" s="7">
+        <v>476</v>
+      </c>
+      <c r="C124" t="s" s="8">
+        <v>477</v>
+      </c>
+      <c r="D124" t="s" s="8">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" ht="30.25" customHeight="1">
+      <c r="A125" t="s" s="6">
+        <v>479</v>
+      </c>
+      <c r="B125" t="s" s="7">
+        <v>209</v>
+      </c>
+      <c r="C125" t="s" s="8">
+        <v>480</v>
+      </c>
+      <c r="D125" t="s" s="8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" ht="30.25" customHeight="1">
+      <c r="A126" t="s" s="6">
+        <v>482</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>483</v>
+      </c>
+      <c r="C126" t="s" s="8">
+        <v>484</v>
+      </c>
+      <c r="D126" t="s" s="8">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" ht="30.25" customHeight="1">
+      <c r="A127" t="s" s="6">
+        <v>486</v>
+      </c>
+      <c r="B127" t="s" s="7">
+        <v>312</v>
+      </c>
+      <c r="C127" t="s" s="8">
+        <v>487</v>
+      </c>
+      <c r="D127" t="s" s="8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="128" ht="30.25" customHeight="1">
+      <c r="A128" t="s" s="6">
+        <v>489</v>
+      </c>
+      <c r="B128" t="s" s="7">
+        <v>490</v>
+      </c>
+      <c r="C128" t="s" s="8">
+        <v>491</v>
+      </c>
+      <c r="D128" t="s" s="8">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" ht="30.25" customHeight="1">
+      <c r="A129" t="s" s="6">
+        <v>493</v>
+      </c>
+      <c r="B129" t="s" s="7">
+        <v>190</v>
+      </c>
+      <c r="C129" t="s" s="8">
+        <v>494</v>
+      </c>
+      <c r="D129" t="s" s="8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" ht="30.25" customHeight="1">
+      <c r="A130" t="s" s="6">
+        <v>496</v>
+      </c>
+      <c r="B130" t="s" s="7">
+        <v>497</v>
+      </c>
+      <c r="C130" t="s" s="8">
+        <v>498</v>
+      </c>
+      <c r="D130" t="s" s="8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="131" ht="30.25" customHeight="1">
+      <c r="A131" t="s" s="6">
+        <v>500</v>
+      </c>
+      <c r="B131" t="s" s="7">
+        <v>501</v>
+      </c>
+      <c r="C131" t="s" s="8">
+        <v>502</v>
+      </c>
+      <c r="D131" t="s" s="8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="132" ht="30.25" customHeight="1">
+      <c r="A132" t="s" s="6">
+        <v>504</v>
+      </c>
+      <c r="B132" t="s" s="7">
+        <v>505</v>
+      </c>
+      <c r="C132" t="s" s="8">
+        <v>506</v>
+      </c>
+      <c r="D132" t="s" s="8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="133" ht="30.25" customHeight="1">
+      <c r="A133" t="s" s="6">
+        <v>508</v>
+      </c>
+      <c r="B133" t="s" s="7">
+        <v>509</v>
+      </c>
+      <c r="C133" t="s" s="8">
+        <v>510</v>
+      </c>
+      <c r="D133" t="s" s="8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="134" ht="30.25" customHeight="1">
+      <c r="A134" t="s" s="6">
+        <v>512</v>
+      </c>
+      <c r="B134" t="s" s="7">
+        <v>513</v>
+      </c>
+      <c r="C134" t="s" s="8">
+        <v>514</v>
+      </c>
+      <c r="D134" t="s" s="8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="135" ht="30.25" customHeight="1">
+      <c r="A135" t="s" s="6">
+        <v>516</v>
+      </c>
+      <c r="B135" t="s" s="7">
+        <v>517</v>
+      </c>
+      <c r="C135" t="s" s="8">
+        <v>518</v>
+      </c>
+      <c r="D135" t="s" s="8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="136" ht="30.25" customHeight="1">
+      <c r="A136" t="s" s="6">
+        <v>520</v>
+      </c>
+      <c r="B136" t="s" s="7">
+        <v>521</v>
+      </c>
+      <c r="C136" t="s" s="8">
+        <v>522</v>
+      </c>
+      <c r="D136" t="s" s="8">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="137" ht="30.25" customHeight="1">
+      <c r="A137" t="s" s="6">
+        <v>524</v>
+      </c>
+      <c r="B137" t="s" s="7">
+        <v>525</v>
+      </c>
+      <c r="C137" t="s" s="8">
+        <v>526</v>
+      </c>
+      <c r="D137" t="s" s="8">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" ht="30.25" customHeight="1">
+      <c r="A138" t="s" s="6">
+        <v>528</v>
+      </c>
+      <c r="B138" t="s" s="7">
+        <v>529</v>
+      </c>
+      <c r="C138" t="s" s="8">
+        <v>506</v>
+      </c>
+      <c r="D138" t="s" s="8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" ht="30.25" customHeight="1">
+      <c r="A139" t="s" s="6">
+        <v>531</v>
+      </c>
+      <c r="B139" t="s" s="7">
+        <v>532</v>
+      </c>
+      <c r="C139" t="s" s="8">
+        <v>506</v>
+      </c>
+      <c r="D139" t="s" s="8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="140" ht="30.25" customHeight="1">
+      <c r="A140" t="s" s="6">
+        <v>534</v>
+      </c>
+      <c r="B140" t="s" s="7">
+        <v>535</v>
+      </c>
+      <c r="C140" t="s" s="8">
+        <v>536</v>
+      </c>
+      <c r="D140" t="s" s="8">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="141" ht="30.25" customHeight="1">
+      <c r="A141" t="s" s="6">
+        <v>538</v>
+      </c>
+      <c r="B141" t="s" s="7">
+        <v>506</v>
+      </c>
+      <c r="C141" t="s" s="8">
+        <v>539</v>
+      </c>
+      <c r="D141" t="s" s="8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="142" ht="30.25" customHeight="1">
+      <c r="A142" t="s" s="6">
+        <v>541</v>
+      </c>
+      <c r="B142" s="12">
+        <v>1033</v>
+      </c>
+      <c r="C142" t="s" s="8">
+        <v>542</v>
+      </c>
+      <c r="D142" t="s" s="8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="143" ht="30.25" customHeight="1">
+      <c r="A143" t="s" s="6">
+        <v>544</v>
+      </c>
+      <c r="B143" t="s" s="7">
+        <v>545</v>
+      </c>
+      <c r="C143" t="s" s="8">
+        <v>546</v>
+      </c>
+      <c r="D143" t="s" s="8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="144" ht="30.25" customHeight="1">
+      <c r="A144" t="s" s="6">
+        <v>548</v>
+      </c>
+      <c r="B144" t="s" s="7">
+        <v>506</v>
+      </c>
+      <c r="C144" t="s" s="8">
+        <v>549</v>
+      </c>
+      <c r="D144" t="s" s="8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="145" ht="30.25" customHeight="1">
+      <c r="A145" t="s" s="6">
+        <v>551</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>552</v>
+      </c>
+      <c r="C145" t="s" s="8">
+        <v>553</v>
+      </c>
+      <c r="D145" t="s" s="8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="146" ht="30.25" customHeight="1">
+      <c r="A146" t="s" s="6">
+        <v>555</v>
+      </c>
+      <c r="B146" s="12">
+        <v>1816</v>
+      </c>
+      <c r="C146" t="s" s="8">
+        <v>556</v>
+      </c>
+      <c r="D146" t="s" s="8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="147" ht="30.25" customHeight="1">
+      <c r="A147" t="s" s="6">
+        <v>558</v>
+      </c>
+      <c r="B147" t="s" s="7">
+        <v>559</v>
+      </c>
+      <c r="C147" t="s" s="8">
+        <v>560</v>
+      </c>
+      <c r="D147" t="s" s="8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="148" ht="30.25" customHeight="1">
+      <c r="A148" t="s" s="6">
+        <v>562</v>
+      </c>
+      <c r="B148" t="s" s="7">
+        <v>563</v>
+      </c>
+      <c r="C148" t="s" s="8">
+        <v>288</v>
+      </c>
+      <c r="D148" t="s" s="8">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="149" ht="30.25" customHeight="1">
+      <c r="A149" t="s" s="6">
+        <v>565</v>
+      </c>
+      <c r="B149" t="s" s="7">
+        <v>566</v>
+      </c>
+      <c r="C149" t="s" s="8">
+        <v>567</v>
+      </c>
+      <c r="D149" t="s" s="8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="150" ht="30.25" customHeight="1">
+      <c r="A150" t="s" s="6">
+        <v>569</v>
+      </c>
+      <c r="B150" t="s" s="7">
+        <v>570</v>
+      </c>
+      <c r="C150" t="s" s="8">
+        <v>571</v>
+      </c>
+      <c r="D150" t="s" s="8">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" ht="30.25" customHeight="1">
+      <c r="A151" t="s" s="6">
+        <v>573</v>
+      </c>
+      <c r="B151" t="s" s="7">
+        <v>574</v>
+      </c>
+      <c r="C151" t="s" s="8">
+        <v>575</v>
+      </c>
+      <c r="D151" t="s" s="8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="152" ht="30.25" customHeight="1">
+      <c r="A152" t="s" s="6">
+        <v>577</v>
+      </c>
+      <c r="B152" t="s" s="7">
+        <v>578</v>
+      </c>
+      <c r="C152" t="s" s="8">
+        <v>579</v>
+      </c>
+      <c r="D152" t="s" s="8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="153" ht="30.25" customHeight="1">
+      <c r="A153" t="s" s="6">
+        <v>581</v>
+      </c>
+      <c r="B153" t="s" s="7">
+        <v>582</v>
+      </c>
+      <c r="C153" t="s" s="8">
+        <v>583</v>
+      </c>
+      <c r="D153" t="s" s="8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="154" ht="30.25" customHeight="1">
+      <c r="A154" t="s" s="6">
+        <v>585</v>
+      </c>
+      <c r="B154" t="s" s="7">
+        <v>586</v>
+      </c>
+      <c r="C154" t="s" s="8">
+        <v>587</v>
+      </c>
+      <c r="D154" t="s" s="8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="155" ht="30.25" customHeight="1">
+      <c r="A155" t="s" s="6">
+        <v>589</v>
+      </c>
+      <c r="B155" t="s" s="7">
+        <v>402</v>
+      </c>
+      <c r="C155" t="s" s="8">
+        <v>266</v>
+      </c>
+      <c r="D155" t="s" s="8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="156" ht="30.25" customHeight="1">
+      <c r="A156" t="s" s="6">
+        <v>591</v>
+      </c>
+      <c r="B156" t="s" s="7">
+        <v>592</v>
+      </c>
+      <c r="C156" t="s" s="8">
+        <v>593</v>
+      </c>
+      <c r="D156" t="s" s="8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="157" ht="30.25" customHeight="1">
+      <c r="A157" t="s" s="6">
+        <v>595</v>
+      </c>
+      <c r="B157" t="s" s="7">
+        <v>596</v>
+      </c>
+      <c r="C157" t="s" s="8">
+        <v>597</v>
+      </c>
+      <c r="D157" t="s" s="8">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="158" ht="30.25" customHeight="1">
+      <c r="A158" t="s" s="6">
+        <v>599</v>
+      </c>
+      <c r="B158" t="s" s="7">
+        <v>600</v>
+      </c>
+      <c r="C158" t="s" s="8">
+        <v>327</v>
+      </c>
+      <c r="D158" t="s" s="8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="159" ht="30.25" customHeight="1">
+      <c r="A159" t="s" s="6">
+        <v>602</v>
+      </c>
+      <c r="B159" t="s" s="7">
+        <v>603</v>
+      </c>
+      <c r="C159" t="s" s="8">
+        <v>604</v>
+      </c>
+      <c r="D159" t="s" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" ht="30.25" customHeight="1">
+      <c r="A160" t="s" s="6">
+        <v>606</v>
+      </c>
+      <c r="B160" t="s" s="7">
+        <v>607</v>
+      </c>
+      <c r="C160" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="D160" t="s" s="8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="161" ht="30.25" customHeight="1">
+      <c r="A161" t="s" s="6">
+        <v>609</v>
+      </c>
+      <c r="B161" t="s" s="7">
+        <v>610</v>
+      </c>
+      <c r="C161" t="s" s="8">
+        <v>611</v>
+      </c>
+      <c r="D161" t="s" s="8">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="162" ht="30.25" customHeight="1">
+      <c r="A162" t="s" s="6">
+        <v>613</v>
+      </c>
+      <c r="B162" t="s" s="7">
+        <v>614</v>
+      </c>
+      <c r="C162" t="s" s="8">
+        <v>615</v>
+      </c>
+      <c r="D162" t="s" s="8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="163" ht="30.25" customHeight="1">
+      <c r="A163" t="s" s="6">
+        <v>617</v>
+      </c>
+      <c r="B163" t="s" s="7">
+        <v>618</v>
+      </c>
+      <c r="C163" t="s" s="8">
+        <v>619</v>
+      </c>
+      <c r="D163" t="s" s="8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="164" ht="30.25" customHeight="1">
+      <c r="A164" t="s" s="6">
+        <v>621</v>
+      </c>
+      <c r="B164" t="s" s="7">
+        <v>622</v>
+      </c>
+      <c r="C164" t="s" s="8">
+        <v>623</v>
+      </c>
+      <c r="D164" t="s" s="8">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="165" ht="30.25" customHeight="1">
+      <c r="A165" t="s" s="6">
+        <v>625</v>
+      </c>
+      <c r="B165" t="s" s="7">
+        <v>626</v>
+      </c>
+      <c r="C165" t="s" s="8">
+        <v>627</v>
+      </c>
+      <c r="D165" t="s" s="8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" ht="30.25" customHeight="1">
+      <c r="A166" t="s" s="6">
+        <v>629</v>
+      </c>
+      <c r="B166" t="s" s="7">
+        <v>630</v>
+      </c>
+      <c r="C166" t="s" s="8">
+        <v>631</v>
+      </c>
+      <c r="D166" t="s" s="8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="167" ht="30.25" customHeight="1">
+      <c r="A167" t="s" s="6">
+        <v>633</v>
+      </c>
+      <c r="B167" t="s" s="7">
+        <v>607</v>
+      </c>
+      <c r="C167" t="s" s="8">
+        <v>634</v>
+      </c>
+      <c r="D167" t="s" s="8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="168" ht="30.25" customHeight="1">
+      <c r="A168" t="s" s="6">
+        <v>636</v>
+      </c>
+      <c r="B168" t="s" s="7">
+        <v>480</v>
+      </c>
+      <c r="C168" t="s" s="8">
+        <v>637</v>
+      </c>
+      <c r="D168" t="s" s="8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="169" ht="30.25" customHeight="1">
+      <c r="A169" t="s" s="6">
+        <v>639</v>
+      </c>
+      <c r="B169" t="s" s="7">
+        <v>640</v>
+      </c>
+      <c r="C169" t="s" s="8">
+        <v>641</v>
+      </c>
+      <c r="D169" t="s" s="8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="170" ht="30.25" customHeight="1">
+      <c r="A170" t="s" s="6">
+        <v>643</v>
+      </c>
+      <c r="B170" t="s" s="7">
+        <v>644</v>
+      </c>
+      <c r="C170" t="s" s="8">
+        <v>645</v>
+      </c>
+      <c r="D170" t="s" s="8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="171" ht="30.25" customHeight="1">
+      <c r="A171" t="s" s="6">
+        <v>647</v>
+      </c>
+      <c r="B171" t="s" s="7">
+        <v>648</v>
+      </c>
+      <c r="C171" t="s" s="8">
+        <v>649</v>
+      </c>
+      <c r="D171" t="s" s="8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" ht="30.25" customHeight="1">
+      <c r="A172" t="s" s="6">
+        <v>651</v>
+      </c>
+      <c r="B172" t="s" s="7">
+        <v>652</v>
+      </c>
+      <c r="C172" t="s" s="8">
+        <v>653</v>
+      </c>
+      <c r="D172" t="s" s="8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="173" ht="30.25" customHeight="1">
+      <c r="A173" t="s" s="6">
+        <v>655</v>
+      </c>
+      <c r="B173" t="s" s="7">
+        <v>656</v>
+      </c>
+      <c r="C173" t="s" s="8">
+        <v>657</v>
+      </c>
+      <c r="D173" t="s" s="8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="174" ht="30.25" customHeight="1">
+      <c r="A174" t="s" s="6">
+        <v>659</v>
+      </c>
+      <c r="B174" t="s" s="7">
+        <v>660</v>
+      </c>
+      <c r="C174" t="s" s="8">
+        <v>661</v>
+      </c>
+      <c r="D174" t="s" s="8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="175" ht="30.25" customHeight="1">
+      <c r="A175" t="s" s="6">
+        <v>663</v>
+      </c>
+      <c r="B175" t="s" s="7">
+        <v>402</v>
+      </c>
+      <c r="C175" t="s" s="8">
+        <v>664</v>
+      </c>
+      <c r="D175" t="s" s="8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="176" ht="30.25" customHeight="1">
+      <c r="A176" t="s" s="6">
+        <v>666</v>
+      </c>
+      <c r="B176" t="s" s="7">
+        <v>667</v>
+      </c>
+      <c r="C176" t="s" s="8">
+        <v>668</v>
+      </c>
+      <c r="D176" t="s" s="8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="177" ht="30.25" customHeight="1">
+      <c r="A177" t="s" s="6">
+        <v>670</v>
+      </c>
+      <c r="B177" t="s" s="7">
+        <v>671</v>
+      </c>
+      <c r="C177" t="s" s="8">
+        <v>672</v>
+      </c>
+      <c r="D177" t="s" s="8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="178" ht="30.25" customHeight="1">
+      <c r="A178" t="s" s="6">
+        <v>674</v>
+      </c>
+      <c r="B178" t="s" s="7">
+        <v>675</v>
+      </c>
+      <c r="C178" t="s" s="8">
+        <v>676</v>
+      </c>
+      <c r="D178" t="s" s="8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="179" ht="30.25" customHeight="1">
+      <c r="A179" t="s" s="6">
+        <v>678</v>
+      </c>
+      <c r="B179" t="s" s="7">
+        <v>679</v>
+      </c>
+      <c r="C179" t="s" s="8">
+        <v>680</v>
+      </c>
+      <c r="D179" t="s" s="8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="180" ht="30.25" customHeight="1">
+      <c r="A180" t="s" s="6">
+        <v>682</v>
+      </c>
+      <c r="B180" t="s" s="7">
+        <v>683</v>
+      </c>
+      <c r="C180" t="s" s="8">
+        <v>389</v>
+      </c>
+      <c r="D180" t="s" s="8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="181" ht="30.25" customHeight="1">
+      <c r="A181" t="s" s="6">
+        <v>685</v>
+      </c>
+      <c r="B181" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s" s="8">
+        <v>487</v>
+      </c>
+      <c r="D181" t="s" s="8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="182" ht="30.25" customHeight="1">
+      <c r="A182" t="s" s="6">
+        <v>687</v>
+      </c>
+      <c r="B182" t="s" s="7">
+        <v>688</v>
+      </c>
+      <c r="C182" t="s" s="8">
+        <v>689</v>
+      </c>
+      <c r="D182" t="s" s="8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="183" ht="30.25" customHeight="1">
+      <c r="A183" t="s" s="6">
+        <v>691</v>
+      </c>
+      <c r="B183" t="s" s="7">
+        <v>692</v>
+      </c>
+      <c r="C183" t="s" s="8">
+        <v>693</v>
+      </c>
+      <c r="D183" t="s" s="8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="184" ht="30.25" customHeight="1">
+      <c r="A184" t="s" s="6">
+        <v>695</v>
+      </c>
+      <c r="B184" t="s" s="7">
+        <v>696</v>
+      </c>
+      <c r="C184" t="s" s="8">
+        <v>697</v>
+      </c>
+      <c r="D184" t="s" s="8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="185" ht="30.25" customHeight="1">
+      <c r="A185" t="s" s="6">
+        <v>699</v>
+      </c>
+      <c r="B185" t="s" s="7">
+        <v>700</v>
+      </c>
+      <c r="C185" t="s" s="8">
+        <v>701</v>
+      </c>
+      <c r="D185" t="s" s="8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="186" ht="30.25" customHeight="1">
+      <c r="A186" t="s" s="6">
+        <v>703</v>
+      </c>
+      <c r="B186" t="s" s="7">
+        <v>704</v>
+      </c>
+      <c r="C186" t="s" s="8">
+        <v>705</v>
+      </c>
+      <c r="D186" t="s" s="8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="187" ht="30.25" customHeight="1">
+      <c r="A187" t="s" s="6">
+        <v>707</v>
+      </c>
+      <c r="B187" t="s" s="7">
+        <v>385</v>
+      </c>
+      <c r="C187" t="s" s="8">
+        <v>266</v>
+      </c>
+      <c r="D187" t="s" s="8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="188" ht="30.25" customHeight="1">
+      <c r="A188" t="s" s="6">
+        <v>709</v>
+      </c>
+      <c r="B188" t="s" s="7">
+        <v>174</v>
+      </c>
+      <c r="C188" t="s" s="8">
+        <v>710</v>
+      </c>
+      <c r="D188" t="s" s="8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="189" ht="30.25" customHeight="1">
+      <c r="A189" t="s" s="6">
+        <v>712</v>
+      </c>
+      <c r="B189" t="s" s="7">
+        <v>713</v>
+      </c>
+      <c r="C189" t="s" s="8">
+        <v>714</v>
+      </c>
+      <c r="D189" t="s" s="8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="190" ht="30.25" customHeight="1">
+      <c r="A190" t="s" s="6">
+        <v>716</v>
+      </c>
+      <c r="B190" t="s" s="7">
+        <v>596</v>
+      </c>
+      <c r="C190" t="s" s="8">
+        <v>717</v>
+      </c>
+      <c r="D190" t="s" s="8">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="191" ht="30.25" customHeight="1">
+      <c r="A191" t="s" s="6">
+        <v>719</v>
+      </c>
+      <c r="B191" t="s" s="7">
+        <v>720</v>
+      </c>
+      <c r="C191" t="s" s="8">
+        <v>721</v>
+      </c>
+      <c r="D191" t="s" s="8">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="192" ht="30.25" customHeight="1">
+      <c r="A192" t="s" s="6">
+        <v>723</v>
+      </c>
+      <c r="B192" t="s" s="7">
+        <v>724</v>
+      </c>
+      <c r="C192" t="s" s="8">
+        <v>725</v>
+      </c>
+      <c r="D192" t="s" s="8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="193" ht="30.25" customHeight="1">
+      <c r="A193" t="s" s="6">
+        <v>727</v>
+      </c>
+      <c r="B193" t="s" s="7">
+        <v>728</v>
+      </c>
+      <c r="C193" t="s" s="8">
+        <v>729</v>
+      </c>
+      <c r="D193" t="s" s="8">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="194" ht="30.25" customHeight="1">
+      <c r="A194" t="s" s="6">
+        <v>731</v>
+      </c>
+      <c r="B194" t="s" s="7">
+        <v>732</v>
+      </c>
+      <c r="C194" t="s" s="8">
+        <v>733</v>
+      </c>
+      <c r="D194" t="s" s="8">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="195" ht="30.25" customHeight="1">
+      <c r="A195" t="s" s="6">
+        <v>735</v>
+      </c>
+      <c r="B195" t="s" s="7">
+        <v>736</v>
+      </c>
+      <c r="C195" t="s" s="8">
+        <v>737</v>
+      </c>
+      <c r="D195" t="s" s="8">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="196" ht="30.25" customHeight="1">
+      <c r="A196" t="s" s="6">
+        <v>739</v>
+      </c>
+      <c r="B196" t="s" s="7">
+        <v>740</v>
+      </c>
+      <c r="C196" t="s" s="8">
+        <v>741</v>
+      </c>
+      <c r="D196" t="s" s="8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="197" ht="30.25" customHeight="1">
+      <c r="A197" t="s" s="6">
+        <v>743</v>
+      </c>
+      <c r="B197" t="s" s="7">
+        <v>744</v>
+      </c>
+      <c r="C197" t="s" s="8">
+        <v>745</v>
+      </c>
+      <c r="D197" t="s" s="8">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="198" ht="30.25" customHeight="1">
+      <c r="A198" t="s" s="6">
+        <v>747</v>
+      </c>
+      <c r="B198" t="s" s="7">
+        <v>748</v>
+      </c>
+      <c r="C198" t="s" s="8">
+        <v>457</v>
+      </c>
+      <c r="D198" t="s" s="8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="199" ht="30.25" customHeight="1">
+      <c r="A199" t="s" s="6">
+        <v>750</v>
+      </c>
+      <c r="B199" t="s" s="7">
+        <v>751</v>
+      </c>
+      <c r="C199" t="s" s="8">
+        <v>752</v>
+      </c>
+      <c r="D199" t="s" s="8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="200" ht="30.25" customHeight="1">
+      <c r="A200" t="s" s="6">
+        <v>754</v>
+      </c>
+      <c r="B200" t="s" s="7">
+        <v>457</v>
+      </c>
+      <c r="C200" t="s" s="8">
+        <v>755</v>
+      </c>
+      <c r="D200" t="s" s="8">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="201" ht="30.25" customHeight="1">
+      <c r="A201" t="s" s="6">
+        <v>757</v>
+      </c>
+      <c r="B201" t="s" s="7">
+        <v>758</v>
+      </c>
+      <c r="C201" t="s" s="8">
+        <v>759</v>
+      </c>
+      <c r="D201" t="s" s="8">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="202" ht="30.25" customHeight="1">
+      <c r="A202" t="s" s="6">
+        <v>761</v>
+      </c>
+      <c r="B202" t="s" s="7">
+        <v>762</v>
+      </c>
+      <c r="C202" t="s" s="8">
+        <v>758</v>
+      </c>
+      <c r="D202" t="s" s="8">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="203" ht="30.25" customHeight="1">
+      <c r="A203" t="s" s="6">
+        <v>764</v>
+      </c>
+      <c r="B203" t="s" s="7">
+        <v>765</v>
+      </c>
+      <c r="C203" t="s" s="8">
+        <v>766</v>
+      </c>
+      <c r="D203" t="s" s="8">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="204" ht="30.25" customHeight="1">
+      <c r="A204" t="s" s="6">
+        <v>768</v>
+      </c>
+      <c r="B204" t="s" s="7">
+        <v>769</v>
+      </c>
+      <c r="C204" t="s" s="8">
+        <v>622</v>
+      </c>
+      <c r="D204" t="s" s="8">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="205" ht="30.25" customHeight="1">
+      <c r="A205" t="s" s="6">
+        <v>771</v>
+      </c>
+      <c r="B205" t="s" s="7">
+        <v>772</v>
+      </c>
+      <c r="C205" t="s" s="8">
+        <v>773</v>
+      </c>
+      <c r="D205" t="s" s="8">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="206" ht="30.25" customHeight="1">
+      <c r="A206" t="s" s="6">
+        <v>775</v>
+      </c>
+      <c r="B206" t="s" s="7">
+        <v>776</v>
+      </c>
+      <c r="C206" t="s" s="8">
+        <v>777</v>
+      </c>
+      <c r="D206" t="s" s="8">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="207" ht="30.25" customHeight="1">
+      <c r="A207" t="s" s="6">
+        <v>779</v>
+      </c>
+      <c r="B207" t="s" s="7">
+        <v>780</v>
+      </c>
+      <c r="C207" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="D207" t="s" s="8">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="208" ht="30.25" customHeight="1">
+      <c r="A208" t="s" s="6">
+        <v>782</v>
+      </c>
+      <c r="B208" t="s" s="7">
+        <v>783</v>
+      </c>
+      <c r="C208" t="s" s="8">
+        <v>784</v>
+      </c>
+      <c r="D208" t="s" s="8">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="209" ht="30.25" customHeight="1">
+      <c r="A209" t="s" s="6">
+        <v>786</v>
+      </c>
+      <c r="B209" t="s" s="7">
+        <v>539</v>
+      </c>
+      <c r="C209" t="s" s="8">
+        <v>787</v>
+      </c>
+      <c r="D209" t="s" s="8">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="210" ht="30.25" customHeight="1">
+      <c r="A210" t="s" s="6">
+        <v>789</v>
+      </c>
+      <c r="B210" t="s" s="7">
+        <v>790</v>
+      </c>
+      <c r="C210" t="s" s="8">
+        <v>182</v>
+      </c>
+      <c r="D210" t="s" s="8">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="211" ht="30.25" customHeight="1">
+      <c r="A211" t="s" s="6">
+        <v>792</v>
+      </c>
+      <c r="B211" t="s" s="7">
+        <v>793</v>
+      </c>
+      <c r="C211" t="s" s="8">
+        <v>794</v>
+      </c>
+      <c r="D211" t="s" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="212" ht="30.25" customHeight="1">
+      <c r="A212" t="s" s="6">
+        <v>796</v>
+      </c>
+      <c r="B212" t="s" s="7">
+        <v>797</v>
+      </c>
+      <c r="C212" t="s" s="8">
+        <v>798</v>
+      </c>
+      <c r="D212" t="s" s="8">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="213" ht="30.25" customHeight="1">
+      <c r="A213" t="s" s="6">
+        <v>800</v>
+      </c>
+      <c r="B213" t="s" s="7">
+        <v>801</v>
+      </c>
+      <c r="C213" t="s" s="8">
+        <v>615</v>
+      </c>
+      <c r="D213" t="s" s="8">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="214" ht="30.25" customHeight="1">
+      <c r="A214" t="s" s="6">
+        <v>803</v>
+      </c>
+      <c r="B214" t="s" s="7">
+        <v>798</v>
+      </c>
+      <c r="C214" t="s" s="8">
+        <v>668</v>
+      </c>
+      <c r="D214" t="s" s="8">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="215" ht="30.25" customHeight="1">
+      <c r="A215" t="s" s="6">
+        <v>805</v>
+      </c>
+      <c r="B215" t="s" s="7">
+        <v>806</v>
+      </c>
+      <c r="C215" t="s" s="8">
+        <v>807</v>
+      </c>
+      <c r="D215" t="s" s="8">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="216" ht="30.25" customHeight="1">
+      <c r="A216" t="s" s="6">
+        <v>809</v>
+      </c>
+      <c r="B216" t="s" s="7">
+        <v>586</v>
+      </c>
+      <c r="C216" t="s" s="8">
+        <v>810</v>
+      </c>
+      <c r="D216" t="s" s="8">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="217" ht="30.25" customHeight="1">
+      <c r="A217" t="s" s="6">
+        <v>812</v>
+      </c>
+      <c r="B217" t="s" s="7">
+        <v>813</v>
+      </c>
+      <c r="C217" t="s" s="8">
+        <v>361</v>
+      </c>
+      <c r="D217" t="s" s="8">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="218" ht="30.25" customHeight="1">
+      <c r="A218" t="s" s="6">
+        <v>815</v>
+      </c>
+      <c r="B218" t="s" s="7">
+        <v>816</v>
+      </c>
+      <c r="C218" t="s" s="8">
+        <v>817</v>
+      </c>
+      <c r="D218" t="s" s="8">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="219" ht="30.25" customHeight="1">
+      <c r="A219" t="s" s="6">
+        <v>819</v>
+      </c>
+      <c r="B219" t="s" s="7">
+        <v>820</v>
+      </c>
+      <c r="C219" t="s" s="8">
+        <v>821</v>
+      </c>
+      <c r="D219" t="s" s="8">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="220" ht="30.25" customHeight="1">
+      <c r="A220" t="s" s="6">
+        <v>823</v>
+      </c>
+      <c r="B220" t="s" s="7">
+        <v>824</v>
+      </c>
+      <c r="C220" t="s" s="8">
+        <v>324</v>
+      </c>
+      <c r="D220" t="s" s="8">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="221" ht="30.25" customHeight="1">
+      <c r="A221" t="s" s="6">
+        <v>826</v>
+      </c>
+      <c r="B221" t="s" s="7">
+        <v>827</v>
+      </c>
+      <c r="C221" t="s" s="8">
+        <v>828</v>
+      </c>
+      <c r="D221" t="s" s="8">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="222" ht="30.25" customHeight="1">
+      <c r="A222" t="s" s="6">
+        <v>830</v>
+      </c>
+      <c r="B222" t="s" s="7">
+        <v>831</v>
+      </c>
+      <c r="C222" t="s" s="8">
+        <v>832</v>
+      </c>
+      <c r="D222" t="s" s="8">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="223" ht="30.25" customHeight="1">
+      <c r="A223" t="s" s="6">
+        <v>834</v>
+      </c>
+      <c r="B223" t="s" s="7">
+        <v>835</v>
+      </c>
+      <c r="C223" t="s" s="8">
+        <v>457</v>
+      </c>
+      <c r="D223" t="s" s="8">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="224" ht="30.25" customHeight="1">
+      <c r="A224" t="s" s="6">
+        <v>837</v>
+      </c>
+      <c r="B224" t="s" s="7">
+        <v>838</v>
+      </c>
+      <c r="C224" t="s" s="8">
+        <v>839</v>
+      </c>
+      <c r="D224" t="s" s="8">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="225" ht="30.25" customHeight="1">
+      <c r="A225" t="s" s="6">
+        <v>841</v>
+      </c>
+      <c r="B225" t="s" s="7">
+        <v>842</v>
+      </c>
+      <c r="C225" t="s" s="8">
+        <v>843</v>
+      </c>
+      <c r="D225" t="s" s="8">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="226" ht="30.25" customHeight="1">
+      <c r="A226" t="s" s="6">
+        <v>845</v>
+      </c>
+      <c r="B226" t="s" s="7">
+        <v>846</v>
+      </c>
+      <c r="C226" t="s" s="8">
+        <v>847</v>
+      </c>
+      <c r="D226" t="s" s="8">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="227" ht="30.25" customHeight="1">
+      <c r="A227" t="s" s="6">
+        <v>849</v>
+      </c>
+      <c r="B227" t="s" s="7">
+        <v>579</v>
+      </c>
+      <c r="C227" t="s" s="8">
+        <v>850</v>
+      </c>
+      <c r="D227" t="s" s="8">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="228" ht="30.25" customHeight="1">
+      <c r="A228" t="s" s="6">
+        <v>852</v>
+      </c>
+      <c r="B228" t="s" s="7">
+        <v>853</v>
+      </c>
+      <c r="C228" t="s" s="8">
+        <v>854</v>
+      </c>
+      <c r="D228" t="s" s="8">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="229" ht="30.25" customHeight="1">
+      <c r="A229" t="s" s="6">
+        <v>856</v>
+      </c>
+      <c r="B229" t="s" s="7">
+        <v>857</v>
+      </c>
+      <c r="C229" t="s" s="8">
+        <v>744</v>
+      </c>
+      <c r="D229" t="s" s="8">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
